--- a/thermistor.xlsx
+++ b/thermistor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Voltage</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Rup</t>
+  </si>
+  <si>
+    <t>Total power</t>
   </si>
 </sst>
 </file>
@@ -853,619 +856,619 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="205"/>
                 <c:pt idx="0">
-                  <c:v>5.5905037207517587E-6</c:v>
+                  <c:v>2.7451900934092258E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0633653040243672E-6</c:v>
+                  <c:v>2.9536622659360202E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5706321269677607E-6</c:v>
+                  <c:v>3.1757709988158977E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1143088806049423E-6</c:v>
+                  <c:v>3.4122492421836057E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6964725799239415E-6</c:v>
+                  <c:v>3.6638588437042423E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3192707408669317E-6</c:v>
+                  <c:v>3.9313910185953802E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.984918936911251E-6</c:v>
+                  <c:v>4.2156667775287033E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6956976746395937E-6</c:v>
+                  <c:v>4.5175373075337639E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0453948525584038E-5</c:v>
+                  <c:v>4.8378843007561506E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1262069449947265E-5</c:v>
+                  <c:v>5.1776202256485201E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2122509246659768E-5</c:v>
+                  <c:v>5.5376885348979045E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3037761063735896E-5</c:v>
+                  <c:v>5.9190638041164879E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4010354903169673E-5</c:v>
+                  <c:v>6.3227517950486127E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5042849055797511E-5</c:v>
+                  <c:v>6.7497894367755265E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6137820403790768E-5</c:v>
+                  <c:v>7.2012447181338672E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7297853531876352E-5</c:v>
+                  <c:v>7.6782164843062971E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8525528593170824E-5</c:v>
+                  <c:v>8.1818341302959563E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9823407881810419E-5</c:v>
+                  <c:v>8.7132571837637442E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1194021072517894E-5</c:v>
+                  <c:v>9.2736747694913661E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2639849097019601E-5</c:v>
+                  <c:v>9.8643049475385429E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4163306638947282E-5</c:v>
+                  <c:v>1.0486393916992191E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5766723242655788E-5</c:v>
+                  <c:v>1.1141215077064285E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.7452323047355272E-5</c:v>
+                  <c:v>1.1830067937186627E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.9222203176170714E-5</c:v>
+                  <c:v>1.2554276867681014E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.107831083023042E-5</c:v>
+                  <c:v>1.3315189682556577E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3022419160640404E-5</c:v>
+                  <c:v>1.4114176046007684E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5056102016152115E-5</c:v>
+                  <c:v>1.4952625694261714E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.718070769134836E-5</c:v>
+                  <c:v>1.5831946464561184E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.9397331829056992E-5</c:v>
+                  <c:v>1.6753562123267732E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.1706789661162994E-5</c:v>
+                  <c:v>1.7718909985346834E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.4109587803671704E-5</c:v>
+                  <c:v>1.8729438317846247E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.660589585430274E-5</c:v>
+                  <c:v>1.9786603520415078E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9195518073527233E-5</c:v>
+                  <c:v>2.0891867076439845E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.1877865462125148E-5</c:v>
+                  <c:v>2.2046692268994433E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.4651928579317797E-5</c:v>
+                  <c:v>2.3252540656531489E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.7516251474455405E-5</c:v>
+                  <c:v>2.451086830407326E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.0468907131234242E-5</c:v>
+                  <c:v>2.5823121766612394E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.3507474845482217E-5</c:v>
+                  <c:v>2.7190733822498003E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.6629019974692692E-5</c:v>
+                  <c:v>2.8615118955772743E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.9830076508661196E-5</c:v>
+                  <c:v>3.0097668587742929E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.3106632914780319E-5</c:v>
+                  <c:v>3.1639746059506767E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.6454121707805574E-5</c:v>
+                  <c:v>3.3242681368741294E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.9867413181337207E-5</c:v>
+                  <c:v>3.4907765665751243E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.334081371612787E-5</c:v>
+                  <c:v>3.6636245515617714E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.6868069048029185E-5</c:v>
+                  <c:v>3.8429316935242934E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.0442372835585416E-5</c:v>
+                  <c:v>4.0288119216169726E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.405638081383337E-5</c:v>
+                  <c:v>4.2213728546250037E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.7702230756980534E-5</c:v>
+                  <c:v>4.420715144554408E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0137156839877224E-4</c:v>
+                  <c:v>4.6269318034230795E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.050555793763898E-4</c:v>
+                  <c:v>4.8401075152799874E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0874502717280458E-4</c:v>
+                  <c:v>5.0603179357351169E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1243029693518853E-4</c:v>
+                  <c:v>5.2876289815436198E-4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.161014449451017E-4</c:v>
+                  <c:v>5.5220961130520146E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1974825341189045E-4</c:v>
+                  <c:v>5.7637636125794313E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2336029015642597E-4</c:v>
+                  <c:v>6.0126638620707688E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2692697265057553E-4</c:v>
+                  <c:v>6.2688166236184281E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3043763578130061E-4</c:v>
+                  <c:v>6.5322283267017496E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3388160261972826E-4</c:v>
+                  <c:v>6.8028913662357058E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3724825739756569E-4</c:v>
+                  <c:v>7.0807834157492634E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.4052711982827915E-4</c:v>
+                  <c:v>7.365866760225047E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.4370791986073278E-4</c:v>
+                  <c:v>7.6580876533231855E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.46780671920291E-4</c:v>
+                  <c:v>7.9573757038778814E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.4973574767814345E-4</c:v>
+                  <c:v>8.2636432966936299E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.5256394639465905E-4</c:v>
+                  <c:v>8.5767850527729945E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5525656190728098E-4</c:v>
+                  <c:v>8.896677334178034E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.5780544537754814E-4</c:v>
+                  <c:v>9.2231777987573991E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.6020306297444452E-4</c:v>
+                  <c:v>9.5561250099578067E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6244254775104109E-4</c:v>
+                  <c:v>9.8953381068801229E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6451774506635495E-4</c:v>
+                  <c:v>1.0240616539631073E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.6642325101216119E-4</c:v>
+                  <c:v>1.0591739874862486E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.6815444342237887E-4</c:v>
+                  <c:v>1.0948467676175832E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.6970750516761654E-4</c:v>
+                  <c:v>1.1310539463801348E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7107943956631228E-4</c:v>
+                  <c:v>1.1677674757636521E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7226807787341616E-4</c:v>
+                  <c:v>1.2049573207347762E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7327207893457359E-4</c:v>
+                  <c:v>1.2425914812802515E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7409092121528137E-4</c:v>
+                  <c:v>1.2806360237608671E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7472488752777641E-4</c:v>
+                  <c:v>1.3190551217994583E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.7517504288110398E-4</c:v>
+                  <c:v>1.3578111068671185E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7544320596992108E-4</c:v>
+                  <c:v>1.3968645286679465E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.7553191489361701E-4</c:v>
+                  <c:v>1.4361742253548267E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.7544438775823521E-4</c:v>
+                  <c:v>1.4756974035373064E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.7518447885891432E-4</c:v>
+                  <c:v>1.5153897279683267E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.7475663117004687E-4</c:v>
+                  <c:v>1.5552054207200751E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.7416582588443817E-4</c:v>
+                  <c:v>1.5950973695811623E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.7341752974218657E-4</c:v>
+                  <c:v>1.6350172453288344E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7251764087588056E-4</c:v>
+                  <c:v>1.6749156274515284E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.714724338723824E-4</c:v>
+                  <c:v>1.7147421378198742E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7028850471449659E-4</c:v>
+                  <c:v>1.7544455817292194E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6897271621992243E-4</c:v>
+                  <c:v>1.7939740956646256E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6753214454181915E-4</c:v>
+                  <c:v>1.8332753010711915E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6597402723686922E-4</c:v>
+                  <c:v>1.8722964633493978E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.6430571334465039E-4</c:v>
+                  <c:v>1.9109846552375744E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.6253461585805931E-4</c:v>
+                  <c:v>1.9492869236928307E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.6066816690001251E-4</c:v>
+                  <c:v>1.9871504593381127E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.5871377585802767E-4</c:v>
+                  <c:v>2.0245227675075063E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.5667879066676301E-4</c:v>
+                  <c:v>2.0613518398949395E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.5457046237015739E-4</c:v>
+                  <c:v>2.0975863257934268E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.5239591304027137E-4</c:v>
+                  <c:v>2.1331757019034548E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.5016210707990537E-4</c:v>
+                  <c:v>2.168070439690137E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.478758258909885E-4</c:v>
+                  <c:v>2.2022221692795463E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.4554364585086602E-4</c:v>
+                  <c:v>2.2355838389050363E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.4317191950407614E-4</c:v>
+                  <c:v>2.2681098689442789E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.4076675984797752E-4</c:v>
+                  <c:v>2.299756299626875E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.3833402756654081E-4</c:v>
+                  <c:v>2.330480931540208E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.3587932104751376E-4</c:v>
+                  <c:v>2.3602434581173272E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.3340796900372868E-4</c:v>
+                  <c:v>2.3890055893541185E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.309250255091639E-4</c:v>
+                  <c:v>2.4167311660734546E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.2843526725412664E-4</c:v>
+                  <c:v>2.4433862641301336E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.2594319282116008E-4</c:v>
+                  <c:v>2.4689392880316613E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.2345302378357774E-4</c:v>
+                  <c:v>2.4933610535350439E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.2096870743146169E-4</c:v>
+                  <c:v>2.5166248588678912E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.1849392093512417E-4</c:v>
+                  <c:v>2.5387065443120715E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.1603207676302171E-4</c:v>
+                  <c:v>2.5595845399790582E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.1358632917956965E-4</c:v>
+                  <c:v>2.5792399016966597E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.1115958165788445E-4</c:v>
+                  <c:v>2.5976563350162971E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.0875449505288171E-4</c:v>
+                  <c:v>2.6148202074371368E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.0637349639109738E-4</c:v>
+                  <c:v>2.6307205490275209E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.0401878814484278E-4</c:v>
+                  <c:v>2.6453490417042294E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.0169235786963721E-4</c:v>
+                  <c:v>2.6586999975055882E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>9.9395988095113562E-5</c:v>
+                  <c:v>2.670770326264347E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>9.7131266370604856E-5</c:v>
+                  <c:v>2.6815594931503981E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9.4899595377283635E-5</c:v>
+                  <c:v>2.6910694666109031E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>9.2702203028940903E-5</c:v>
+                  <c:v>2.6993046572862116E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>9.0540152493180705E-5</c:v>
+                  <c:v>2.70627184852361E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>8.8414352073927206E-5</c:v>
+                  <c:v>2.7119801191473436E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.6325564904650995E-5</c:v>
+                  <c:v>2.7164407591725045E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>8.4274418409602673E-5</c:v>
+                  <c:v>2.7196671791721722E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>8.2261413497587845E-5</c:v>
+                  <c:v>2.7216748140218854E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8.0286933459435315E-5</c:v>
+                  <c:v>2.7224810217532829E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>7.8351252546306847E-5</c:v>
+                  <c:v>2.7221049782498326E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>7.6454544211393516E-5</c:v>
+                  <c:v>2.7205675685123437E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>7.4596889002374092E-5</c:v>
+                  <c:v>2.7178912752108719E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>7.2778282096286136E-5</c:v>
+                  <c:v>2.7141000652230744E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>7.0998640472235712E-5</c:v>
+                  <c:v>2.7092192748376003E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.9257809720658217E-5</c:v>
+                  <c:v>2.7032754942751861E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.7555570490695103E-5</c:v>
+                  <c:v>2.6962964521503371E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6.589164457968765E-5</c:v>
+                  <c:v>2.6883109004633894E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.4265700670859869E-5</c:v>
+                  <c:v>2.6793485006767846E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.2677359726987899E-5</c:v>
+                  <c:v>2.6694397113913087E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.1126200049275563E-5</c:v>
+                  <c:v>2.6586156780981406E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5.961176201180253E-5</c:v>
+                  <c:v>2.6469081254415069E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>5.8133552482811027E-5</c:v>
+                  <c:v>2.6343492523849738E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>5.6691048944780944E-5</c:v>
+                  <c:v>2.6209716306322957E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>5.5283703325732363E-5</c:v>
+                  <c:v>2.6068081066119029E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>5.3910945554520279E-5</c:v>
+                  <c:v>2.591891707292673E-3</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>5.2572186853058902E-5</c:v>
+                  <c:v>2.5762555500581626E-3</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>5.1266822778467895E-5</c:v>
+                  <c:v>2.5599327568271791E-3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>4.9994236028073499E-5</c:v>
+                  <c:v>2.5429563725706547E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>4.875379902005147E-5</c:v>
+                  <c:v>2.5253592883386872E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>4.7544876262273873E-5</c:v>
+                  <c:v>2.5071741688772035E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>4.6366826521636678E-5</c:v>
+                  <c:v>2.4884333848815086E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>4.5219004805806979E-5</c:v>
+                  <c:v>2.469168949903745E-3</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>4.4100764168949759E-5</c:v>
+                  <c:v>2.4494124619034146E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>4.3011457352588078E-5</c:v>
+                  <c:v>2.4291950494044305E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>4.1950438272315625E-5</c:v>
+                  <c:v>2.4085473221988388E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>4.091706336063329E-5</c:v>
+                  <c:v>2.3874993265162289E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.9910692775724579E-5</c:v>
+                  <c:v>2.3660805045591514E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.8930691485520199E-5</c:v>
+                  <c:v>2.3443196582882265E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.7976430235938784E-5</c:v>
+                  <c:v>2.3222449173262495E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.7047286411733197E-5</c:v>
+                  <c:v>2.2998837108383148E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.6142644797915203E-5</c:v>
+                  <c:v>2.2772627432345962E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.526189824929008E-5</c:v>
+                  <c:v>2.2544079735340515E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.4404448275197552E-5</c:v>
+                  <c:v>2.2313445982206203E-3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.3569705546136878E-5</c:v>
+                  <c:v>2.2080970374185483E-3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.275709032854667E-5</c:v>
+                  <c:v>2.1846889242099756E-3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.1966032853619549E-5</c:v>
+                  <c:v>2.1611430969159882E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.11959736256574E-5</c:v>
+                  <c:v>2.137481594161566E-3</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.0446363675112363E-5</c:v>
+                  <c:v>2.1137256525453744E-3</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.9716664761117943E-5</c:v>
+                  <c:v>2.0898957067368726E-3</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.9006349527988153E-5</c:v>
+                  <c:v>2.0660113918257381E-3</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.8314901619852804E-5</c:v>
+                  <c:v>2.0420915477518623E-3</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.7641815757304797E-5</c:v>
+                  <c:v>2.0181542256483324E-3</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.6986597779657096E-5</c:v>
+                  <c:v>1.9942166959343931E-3</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.6348764656146763E-5</c:v>
+                  <c:v>1.9702954580006981E-3</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.572784446917561E-5</c:v>
+                  <c:v>1.9464062513347281E-3</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.5123376372446592E-5</c:v>
+                  <c:v>1.9225640679403444E-3</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.4534910526635859E-5</c:v>
+                  <c:v>1.8987831659116644E-3</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.3962008015038061E-5</c:v>
+                  <c:v>1.875077084028015E-3</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.3404240741429716E-5</c:v>
+                  <c:v>1.8514586572432883E-3</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.2861191312217448E-5</c:v>
+                  <c:v>1.8279400329497917E-3</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.2332452904770889E-5</c:v>
+                  <c:v>1.8045326879034098E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.1817629123684193E-5</c:v>
+                  <c:v>1.7812474457036388E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.1316333846564357E-5</c:v>
+                  <c:v>1.758094494728682E-3</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.0828191060810451E-5</c:v>
+                  <c:v>1.7350834064324082E-3</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.0352834692721473E-5</c:v>
+                  <c:v>1.7122231539163921E-3</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.9889908430153542E-5</c:v>
+                  <c:v>1.6895221306964968E-3</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.9439065539840104E-5</c:v>
+                  <c:v>1.6669881695896382E-3</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.8999968680386743E-5</c:v>
+                  <c:v>1.644628561652162E-3</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.8572289711860805E-5</c:v>
+                  <c:v>1.622450075107024E-3</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1.8155709502808957E-5</c:v>
+                  <c:v>1.600458974202391E-3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.7749917735456805E-5</c:v>
+                  <c:v>1.5786610379494672E-3</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.735461270977113E-5</c:v>
+                  <c:v>1.5570615786923551E-3</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1.696950114699812E-5</c:v>
+                  <c:v>1.5356654604674782E-3</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1.6594297993227307E-5</c:v>
+                  <c:v>1.5144771171145331E-3</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1.6228726223475315E-5</c:v>
+                  <c:v>1.4935005701052163E-3</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1.5872516646728972E-5</c:v>
+                  <c:v>1.4727394460598948E-3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1.5525407712340097E-5</c:v>
+                  <c:v>1.4521969939261707E-3</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1.5187145318118741E-5</c:v>
+                  <c:v>1.4318761017967404E-3</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1.4857482620431785E-5</c:v>
+                  <c:v>1.4117793133472526E-3</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.4536179846575511E-5</c:v>
+                  <c:v>1.3919088438778795E-3</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.4223004109657126E-5</c:v>
+                  <c:v>1.3722665959451231E-3</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1.3917729226188837E-5</c:v>
+                  <c:v>1.3528541745730256E-3</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.3620135536569286E-5</c:v>
+                  <c:v>1.3336729020352949E-3</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.3330009728601538E-5</c:v>
+                  <c:v>1.314723832202118E-3</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1.3047144664172969E-5</c:v>
+                  <c:v>1.2960077644474217E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2430,619 +2433,619 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="205"/>
                 <c:pt idx="0">
-                  <c:v>0.99197334015983041</c:v>
+                  <c:v>0.99747277743129559</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99128840603084556</c:v>
+                  <c:v>0.99728033319582043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99055257309556766</c:v>
+                  <c:v>0.99707521884267869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9897626971024619</c:v>
+                  <c:v>0.99685674137407776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98891549089249953</c:v>
+                  <c:v>0.99662417881414556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98800752214704501</c:v>
+                  <c:v>0.99637677951057113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98703521153164264</c:v>
+                  <c:v>0.9961137614497203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9859948312885124</c:v>
+                  <c:v>0.99583431158777147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98488250433379909</c:v>
+                  <c:v>0.9955375852005709</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98369420391877815</c:v>
+                  <c:v>0.99522270525505907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98242575391725939</c:v>
+                  <c:v>0.99488876180527575</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98107282980427324</c:v>
+                  <c:v>0.99453481141611499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9796309603937311</c:v>
+                  <c:v>0.99415987661816074</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97809553040502073</c:v>
+                  <c:v>0.99376294539710219</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97646178393037586</c:v>
+                  <c:v>0.99334297072139144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97472482887623446</c:v>
+                  <c:v>0.9928988701119752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97287964245259073</c:v>
+                  <c:v>0.99242952525809969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9709210777844457</c:v>
+                  <c:v>0.99193378168335034</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96884387171875463</c:v>
+                  <c:v>0.99141044846625692</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96664265389865311</c:v>
+                  <c:v>0.99085829801995062</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96431195717408857</c:v>
+                  <c:v>0.99027606593551787</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.96184622941418096</c:v>
+                  <c:v>0.98966245089384586</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9592398467815576</c:v>
+                  <c:v>0.98901611465089612</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95648712852244366</c:v>
+                  <c:v>0.98833568210147826</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95358235331832852</c:v>
+                  <c:v>0.98761974142671594</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95051977723547276</c:v>
+                  <c:v>0.9868668443305102</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.94729365329727822</c:v>
+                  <c:v>0.98607550637039909</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.94389825269156569</c:v>
+                  <c:v>0.98524420738829266</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94032788761001795</c:v>
+                  <c:v>0.98437139204661883</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93657693570047462</c:v>
+                  <c:v>0.98345547047545911</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.93263986609438188</c:v>
+                  <c:v>0.98249481903626223</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92851126695161457</c:v>
+                  <c:v>0.98148778120771429</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92418587444314737</c:v>
+                  <c:v>0.98043266859930267</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91965860306885228</c:v>
+                  <c:v>0.97932776209803607</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91492457718321363</c:v>
+                  <c:v>0.97817131315367678</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.90997916357625386</c:v>
+                  <c:v>0.97696154520769452</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.90481800493076014</c:v>
+                  <c:v>0.97569665527096672</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.8994370539503761</c:v>
+                  <c:v>0.97437481565501949</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.89383260792670127</c:v>
+                  <c:v>0.97299417586133075</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.8880013434877132</c:v>
+                  <c:v>0.97155286463289214</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.88194035124512871</c:v>
+                  <c:v>0.9700489921718537</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.87564717003532666</c:v>
+                  <c:v>0.96848065252664328</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.86911982042778591</c:v>
+                  <c:v>0.96684592615147891</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.86235683715725009</c:v>
+                  <c:v>0.96514288264063741</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.85535730012168965</c:v>
+                  <c:v>0.96336958363925607</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.84812086357816685</c:v>
+                  <c:v>0.96152408593177552</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.8406477831635446</c:v>
+                  <c:v>0.95960444470841444</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.8329389403671269</c:v>
+                  <c:v>0.9576087170092803</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.82499586408826175</c:v>
+                  <c:v>0.95553496534488147</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.81682074892402201</c:v>
+                  <c:v>0.95338126149089408</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.80841646985058446</c:v>
+                  <c:v>0.9511456904540796</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.79978659298696375</c:v>
+                  <c:v>0.94882635460522236</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.79093538216129711</c:v>
+                  <c:v>0.94642137797388548</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.78186780103774356</c:v>
+                  <c:v>0.94392891069865181</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.77258951060589798</c:v>
+                  <c:v>0.94134713362535105</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.76310686188389776</c:v>
+                  <c:v>0.93867426304455337</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.75342688374043898</c:v>
+                  <c:v>0.93590855555836827</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.7435572657988615</c:v>
+                  <c:v>0.93304831306530678</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.73350633644730689</c:v>
+                  <c:v>0.93009188785067343</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.7232830360416258</c:v>
+                  <c:v>0.92703768776864759</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.71289688545094765</c:v>
+                  <c:v>0.92388418150090534</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.70235795015840807</c:v>
+                  <c:v>0.92062990387534172</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.69167680019013511</c:v>
+                  <c:v>0.91727346122717046</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.68086446620295415</c:v>
+                  <c:v>0.91381353678344668</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.66993239211412892</c:v>
+                  <c:v>0.91024889605085535</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.65889238470368983</c:v>
+                  <c:v>0.90657839218547598</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.64775656066048415</c:v>
+                  <c:v>0.90280097132218007</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.6365372915761166</c:v>
+                  <c:v>0.8989156778403331</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.62524714741580933</c:v>
+                  <c:v>0.89492165954161706</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.61389883901135311</c:v>
+                  <c:v>0.89081817271502539</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.60250516012852995</c:v>
+                  <c:v>0.88660458706346712</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.59107892965960906</c:v>
+                  <c:v>0.88228039046593831</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.57963293448090469</c:v>
+                  <c:v>0.87784519354889579</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.56817987349638499</c:v>
+                  <c:v>0.87329873404032421</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.55673230336147306</c:v>
+                  <c:v>0.86864088088001257</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.54530258634725803</c:v>
+                  <c:v>0.86387163805978295</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.53390284076526295</c:v>
+                  <c:v>0.85899114816783384</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.52254489432767071</c:v>
+                  <c:v>0.8539996956119843</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.51124024076862407</c:v>
+                  <c:v>0.8488977094974498</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.5</c:v>
+                  <c:v>0.84368576613582424</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.48883488202108072</c:v>
+                  <c:v>0.83836459116321271</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.4777551547469055</c:v>
+                  <c:v>0.83293506124693417</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.46677061586587532</c:v>
+                  <c:v>0.82739820536189501</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.45589056878439949</c:v>
+                  <c:v>0.82175520561962567</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.44512380266585977</c:v>
+                  <c:v>0.81600739763504004</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.43447857652376698</c:v>
+                  <c:v>0.81015627041823524</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.42396260728530127</c:v>
+                  <c:v>0.80420346578107271</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.41358306170195619</c:v>
+                  <c:v>0.79815077725083694</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.40334655194919078</c:v>
+                  <c:v>0.79200014848597033</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.39325913472700674</c:v>
+                  <c:v>0.78575367119168082</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.38332631364834996</c:v>
+                  <c:v>0.77941358253609794</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.37355304468222927</c:v>
+                  <c:v>0.7729822620705995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.36394374440325644</c:v>
+                  <c:v>0.76646222816089893</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.35450230078884493</c:v>
+                  <c:v>0.75985613393846241</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.34523208629921398</c:v>
+                  <c:v>0.7531667627847799</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.33613597297332731</c:v>
+                  <c:v>0.74639702336390978</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.3272163492755909</c:v>
+                  <c:v>0.73954994422154385</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.31847513843308889</c:v>
+                  <c:v>0.73262866797154891</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.30991381801097406</c:v>
+                  <c:v>0.72563644509351999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.30153344048387426</c:v>
+                  <c:v>0.71857662736729866</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.29333465457343427</c:v>
+                  <c:v>0.71145266097264348</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.28531772713595244</c:v>
+                  <c:v>0.70426807928426582</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.27748256539910104</c:v>
+                  <c:v>0.6970264953942471</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.26982873936259649</c:v>
+                  <c:v>0.68973159439541587</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.26235550419402859</c:v>
+                  <c:v>0.68238712546054991</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.25506182246764536</c:v>
+                  <c:v>0.67499689375332705</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.24794638611036113</c:v>
+                  <c:v>0.66756475220767408</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.24100763793548077</c:v>
+                  <c:v>0.66009459321266573</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.2342437926603409</c:v>
+                  <c:v>0.65259034024029816</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.22765285731915677</c:v>
+                  <c:v>0.64505593945338113</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.22123265099667347</c:v>
+                  <c:v>0.63749535133041968</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.21498082382167935</c:v>
+                  <c:v>0.62991254234373184</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.20889487517195635</c:v>
+                  <c:v>0.62231147672614151</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.20297217105380222</c:v>
+                  <c:v>0.61469610836045852</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.19720996062981047</c:v>
+                  <c:v>0.60707037282458465</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.19160539187816039</c:v>
+                  <c:v>0.59943817962351109</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.18615552637524316</c:v>
+                  <c:v>0.59180340463770542</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.18085735320106472</c:v>
+                  <c:v>0.58416988281544224</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.17570780197356003</c:v>
+                  <c:v>0.57654140113455665</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.1707037550237715</c:v>
+                  <c:v>0.56892169185689101</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.16584205872882046</c:v>
+                  <c:v>0.56131442609639304</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.16111953402382073</c:v>
+                  <c:v>0.55372320771945138</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.15653298611737429</c:v>
+                  <c:v>0.54615156759362271</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.15207921343812533</c:v>
+                  <c:v>0.53860295819843773</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.14775501584208939</c:v>
+                  <c:v>0.5310807486095217</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.14355720211217182</c:v>
+                  <c:v>0.52358821986481219</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.1394825967825033</c:v>
+                  <c:v>0.51612856071925872</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.13552804632100016</c:v>
+                  <c:v>0.50870486379202284</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.13169042470396777</c:v>
+                  <c:v>0.50132012210794263</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.12796663841663675</c:v>
+                  <c:v>0.49397722603283123</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.12435363091330792</c:v>
+                  <c:v>0.4866789606000943</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.12084838657033822</c:v>
+                  <c:v>0.47942800322420642</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.11744793416452916</c:v>
+                  <c:v>0.47222692179473214</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.11414934990866385</c:v>
+                  <c:v>0.46507817314289607</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.11094976007496254</c:v>
+                  <c:v>0.4579841018711347</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.10784634323615899</c:v>
+                  <c:v>0.45094693953466491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.10483633215273261</c:v>
+                  <c:v>0.44396880416283174</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.101917015333616</c:v>
+                  <c:v>0.4370517001068967</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>9.9085738296427944E-2</c:v>
+                  <c:v>0.43019751819996283</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>9.6339904551995162E-2</c:v>
+                  <c:v>0.42340803621392237</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9.3676976336624612E-2</c:v>
+                  <c:v>0.41668491959764375</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9.1094475114291196E-2</c:v>
+                  <c:v>0.41002972248009428</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>8.8589981869620429E-2</c:v>
+                  <c:v>0.40344388892169464</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>8.6161137211281297E-2</c:v>
+                  <c:v>0.39692875439694636</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8.3805641304175435E-2</c:v>
+                  <c:v>0.39048554749123499</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8.1521253647603167E-2</c:v>
+                  <c:v>0.38411539179467591</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>7.9305792715435475E-2</c:v>
+                  <c:v>0.3778193079759613</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>7.7157135473201285E-2</c:v>
+                  <c:v>0.37159821601933868</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>7.5073216785933844E-2</c:v>
+                  <c:v>0.36545293760812164</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>7.3052028729596888E-2</c:v>
+                  <c:v>0.35938419863847726</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>7.1091619817942653E-2</c:v>
+                  <c:v>0.3533926318476604</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>6.9190094155731338E-2</c:v>
+                  <c:v>0.34747877954134432</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>6.7345610528366934E-2</c:v>
+                  <c:v>0.34164309640522911</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>6.5556381437187755E-2</c:v>
+                  <c:v>0.33588595238670399</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>6.3820672088870059E-2</c:v>
+                  <c:v>0.3302076356329538</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>6.2136799346678637E-2</c:v>
+                  <c:v>0.32460835547255051</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>6.0503130650618381E-2</c:v>
+                  <c:v>0.31908824542825676</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>5.8918082912902889E-2</c:v>
+                  <c:v>0.31364736624945622</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>5.7380121394561355E-2</c:v>
+                  <c:v>0.30828570895332569</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5.5887758568456389E-2</c:v>
+                  <c:v>0.30300319786458968</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>5.4439552973466455E-2</c:v>
+                  <c:v>0.29779969364438802</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>5.3034108064114807E-2</c:v>
+                  <c:v>0.29267499629951155</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>5.1670071059482417E-2</c:v>
+                  <c:v>0.28762884816394108</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>5.0346131794837504E-2</c:v>
+                  <c:v>0.28266093684532356</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>4.9061021579036024E-2</c:v>
+                  <c:v>0.27777089812967287</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>4.7813512060402338E-2</c:v>
+                  <c:v>0.27295831883824129</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.6602414103481385E-2</c:v>
+                  <c:v>0.2682227396311308</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.5426576678759767E-2</c:v>
+                  <c:v>0.26356365775281643</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.4284885767186824E-2</c:v>
+                  <c:v>0.25898052971533225</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.3176263281082282E-2</c:v>
+                  <c:v>0.25447277391542833</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.2099666002791497E-2</c:v>
+                  <c:v>0.25003977318251963</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.1054084542248306E-2</c:v>
+                  <c:v>0.24568087725475921</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.003854231441744E-2</c:v>
+                  <c:v>0.24139540518102121</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.9052094537423428E-2</c:v>
+                  <c:v>0.23718264764703259</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.8093827252017251E-2</c:v>
+                  <c:v>0.23304186922429024</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.7162856362897539E-2</c:v>
+                  <c:v>0.22897231054079445</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.6258326702275794E-2</c:v>
+                  <c:v>0.22497319037297248</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.5379411115966805E-2</c:v>
+                  <c:v>0.22104370765850576</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.4525309572182188E-2</c:v>
+                  <c:v>0.21718304343006359</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.369524829311725E-2</c:v>
+                  <c:v>0.21339036267022743</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.2888478909340824E-2</c:v>
+                  <c:v>0.20966481608813917</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.2104277636926984E-2</c:v>
+                  <c:v>0.2060055418186332</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.1341944477203787E-2</c:v>
+                  <c:v>0.20241166704481095</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.0600802438940113E-2</c:v>
+                  <c:v>0.19888230954520564</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.9880196782742355E-2</c:v>
+                  <c:v>0.19541657916684194</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.9179494287389515E-2</c:v>
+                  <c:v>0.19201357922563331</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.8498082537800527E-2</c:v>
+                  <c:v>0.18867240783569358</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2.7835369234293614E-2</c:v>
+                  <c:v>0.18539215916923152</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.7190781522772413E-2</c:v>
+                  <c:v>0.18217192464879908</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.6563765345449981E-2</c:v>
+                  <c:v>0.1790107940737318</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.5953784811702775E-2</c:v>
+                  <c:v>0.17590785668268324</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.5360321588631638E-2</c:v>
+                  <c:v>0.17286220215420217</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.4782874310894813E-2</c:v>
+                  <c:v>0.16987292154734118</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.4220958009366762E-2</c:v>
+                  <c:v>0.16693910818430266</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.3674103558172146E-2</c:v>
+                  <c:v>0.16405985847715421</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.3141857139636873E-2</c:v>
+                  <c:v>0.16123427270064133</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.2623779726697414E-2</c:v>
+                  <c:v>0.15846145571313169</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.2119446582306954E-2</c:v>
+                  <c:v>0.15574051762770891</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.1628446775378847E-2</c:v>
+                  <c:v>0.15307057443542454</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.1150382712808863E-2</c:v>
+                  <c:v>0.15045074858268939</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.0684869687121216E-2</c:v>
+                  <c:v>0.14788016950476074</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.0231535439287997E-2</c:v>
+                  <c:v>0.14535797411725176</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.9790019736276032E-2</c:v>
+                  <c:v>0.14288330726754891</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.9359973962882027E-2</c:v>
+                  <c:v>0.14045532214798909</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1.8941060727423253E-2</c:v>
+                  <c:v>0.13807318067260321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4392,16 +4395,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>382905</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>191452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37147</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4428,16 +4431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>162877</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4769,6 +4772,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D1">
@@ -4781,7 +4787,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4700</v>
+        <v>1000</v>
       </c>
       <c r="I2" s="5"/>
     </row>
@@ -4790,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3984</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -4798,13 +4804,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4700</v>
+        <v>493</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -4812,16 +4821,20 @@
         <v>-54</v>
       </c>
       <c r="C5">
-        <f>C$4*EXP(C$3*((1/($B5+273.15))-1/(298.15)))</f>
-        <v>580848.67075327679</v>
+        <f>C$4*EXP(C$3*((1/($B5+273.15))-1/(273.15+100)))</f>
+        <v>394691.30648933665</v>
       </c>
       <c r="D5">
-        <f>(C5)/($C$2+C5)</f>
-        <v>0.99197334015983041</v>
+        <f t="shared" ref="D5:D68" si="0">(C5)/($C$2+C5)</f>
+        <v>0.99747277743129559</v>
       </c>
       <c r="E5">
-        <f>$D$1*C5/($C$2+C5)/($C$2+C5)</f>
-        <v>5.5905037207517587E-6</v>
+        <f>$D$1*$D$1*C5/($C$2+C5)/($C$2+C5)</f>
+        <v>2.7451900934092258E-5</v>
+      </c>
+      <c r="F5">
+        <f>$D$1*$D$1/($C$2+C5)</f>
+        <v>2.7521453773191426E-5</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -4829,16 +4842,20 @@
         <v>-53</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C69" si="0">C$4*EXP(C$3*((1/($B6+273.15))-1/(298.15)))</f>
-        <v>534810.91116522369</v>
+        <f t="shared" ref="C6:C69" si="1">C$4*EXP(C$3*((1/($B6+273.15))-1/(273.15+100)))</f>
+        <v>366692.10054084536</v>
       </c>
       <c r="D6">
-        <f>(C6)/($C$2+C6)</f>
-        <v>0.99128840603084556</v>
+        <f t="shared" si="0"/>
+        <v>0.99728033319582043</v>
       </c>
       <c r="E6">
-        <f>$D$1*C6/($C$2+C6)/($C$2+C6)</f>
-        <v>6.0633653040243672E-6</v>
+        <f t="shared" ref="E6:E69" si="2">$D$1*$D$1*C6/($C$2+C6)/($C$2+C6)</f>
+        <v>2.9536622659360202E-5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F69" si="3">$D$1*$D$1/($C$2+C6)</f>
+        <v>2.961717149751569E-5</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -4846,16 +4863,20 @@
         <v>-52</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>340905.9226010089</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>492789.95652932441</v>
-      </c>
-      <c r="D7">
-        <f>(C7)/($C$2+C7)</f>
-        <v>0.99055257309556766</v>
+        <v>0.99707521884267869</v>
       </c>
       <c r="E7">
-        <f>$D$1*C7/($C$2+C7)/($C$2+C7)</f>
-        <v>6.5706321269677607E-6</v>
+        <f t="shared" si="2"/>
+        <v>3.1757709988158977E-5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>3.1850866803229408E-5</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -4863,16 +4884,20 @@
         <v>-51</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>317141.17736067716</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>454405.29824513214</v>
-      </c>
-      <c r="D8">
-        <f>(C8)/($C$2+C8)</f>
-        <v>0.9897626971024619</v>
+        <v>0.99685674137407776</v>
       </c>
       <c r="E8">
-        <f>$D$1*C8/($C$2+C8)/($C$2+C8)</f>
-        <v>7.1143088806049423E-6</v>
+        <f t="shared" si="2"/>
+        <v>3.4122492421836057E-5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>3.4230086436292994E-5</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -4880,16 +4905,20 @@
         <v>-50</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>295224.22069932095</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>419315.16877456324</v>
-      </c>
-      <c r="D9">
-        <f>(C9)/($C$2+C9)</f>
-        <v>0.98891549089249953</v>
+        <v>0.99662417881414556</v>
       </c>
       <c r="E9">
-        <f>$D$1*C9/($C$2+C9)/($C$2+C9)</f>
-        <v>7.6964725799239415E-6</v>
+        <f t="shared" si="2"/>
+        <v>3.6638588437042423E-5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>3.6762692713955253E-5</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -4897,16 +4926,20 @@
         <v>-49</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>274997.55601890839</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>387212.33518450038</v>
-      </c>
-      <c r="D10">
-        <f>(C10)/($C$2+C10)</f>
-        <v>0.98800752214704501</v>
+        <v>0.99637677951057113</v>
       </c>
       <c r="E10">
-        <f>$D$1*C10/($C$2+C10)/($C$2+C10)</f>
-        <v>8.3192707408669317E-6</v>
+        <f t="shared" si="2"/>
+        <v>3.9313910185953802E-5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>3.9456871129880345E-5</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -4914,16 +4947,20 @@
         <v>-48</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>256318.22353726329</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>357820.3767474562</v>
-      </c>
-      <c r="D11">
-        <f>(C11)/($C$2+C11)</f>
-        <v>0.98703521153164264</v>
+        <v>0.9961137614497203</v>
       </c>
       <c r="E11">
-        <f>$D$1*C11/($C$2+C11)/($C$2+C11)</f>
-        <v>8.984918936911251E-6</v>
+        <f t="shared" si="2"/>
+        <v>4.2156667775287033E-5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>4.232113781254585E-5</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -4931,16 +4968,20 @@
         <v>-47</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>239056.36068805787</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>330890.38786479487</v>
-      </c>
-      <c r="D12">
-        <f>(C12)/($C$2+C12)</f>
-        <v>0.9859948312885124</v>
+        <v>0.99583431158777147</v>
       </c>
       <c r="E12">
-        <f>$D$1*C12/($C$2+C12)/($C$2+C12)</f>
-        <v>9.6956976746395937E-6</v>
+        <f t="shared" si="2"/>
+        <v>4.5175373075337639E-5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>4.5364346809168909E-5</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -4948,16 +4989,20 @@
         <v>-46</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>223093.91438194853</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>306198.05506001</v>
-      </c>
-      <c r="D13">
-        <f>(C13)/($C$2+C13)</f>
-        <v>0.98488250433379909</v>
+        <v>0.9955375852005709</v>
       </c>
       <c r="E13">
-        <f>$D$1*C13/($C$2+C13)/($C$2+C13)</f>
-        <v>1.0453948525584038E-5</v>
+        <f t="shared" si="2"/>
+        <v>4.8378843007561506E-5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>4.8595697165782662E-5</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -4965,16 +5010,20 @@
         <v>-45</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>208323.48816429632</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>283541.06327520189</v>
-      </c>
-      <c r="D14">
-        <f>(C14)/($C$2+C14)</f>
-        <v>0.98369420391877815</v>
+        <v>0.99522270525505907</v>
       </c>
       <c r="E14">
-        <f>$D$1*C14/($C$2+C14)/($C$2+C14)</f>
-        <v>1.1262069449947265E-5</v>
+        <f t="shared" si="2"/>
+        <v>5.1776202256485201E-5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>5.2024739772406841E-5</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -4982,16 +5031,20 @@
         <v>-44</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>194647.30930211479</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>262736.79233078391</v>
-      </c>
-      <c r="D15">
-        <f>(C15)/($C$2+C15)</f>
-        <v>0.98242575391725939</v>
+        <v>0.99488876180527575</v>
       </c>
       <c r="E15">
-        <f>$D$1*C15/($C$2+C15)/($C$2+C15)</f>
-        <v>1.2122509246659768E-5</v>
+        <f t="shared" si="2"/>
+        <v>5.5376885348979045E-5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>5.5661383940547176E-5</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -4999,3297 +5052,4073 @@
         <v>-43</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>181976.30258334591</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>243620.26929525606</v>
-      </c>
-      <c r="D16">
-        <f>(C16)/($C$2+C16)</f>
-        <v>0.98107282980427324</v>
+        <v>0.99453481141611499</v>
       </c>
       <c r="E16">
-        <f>$D$1*C16/($C$2+C16)/($C$2+C16)</f>
-        <v>1.3037761063735896E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>5.9190638041164879E-5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>5.9515903678508267E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>-42</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
+        <v>170229.25914710102</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
-        <v>226042.34676010491</v>
-      </c>
-      <c r="D17">
-        <f>(C17)/($C$2+C17)</f>
-        <v>0.9796309603937311</v>
+        <v>0.99415987661816074</v>
       </c>
       <c r="E17">
-        <f>$D$1*C17/($C$2+C17)/($C$2+C17)</f>
-        <v>1.4010354903169673E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>6.3227517950486127E-5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>6.3598943628229615E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>-41</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>159332.09001174869</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>209868.08071158614</v>
-      </c>
-      <c r="D18">
-        <f>(C18)/($C$2+C18)</f>
-        <v>0.97809553040502073</v>
+        <v>0.99376294539710219</v>
       </c>
       <c r="E18">
-        <f>$D$1*C18/($C$2+C18)/($C$2+C18)</f>
-        <v>1.5042849055797511E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>6.7497894367755265E-5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>6.7921524625556934E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>-40</v>
       </c>
       <c r="C19">
+        <f t="shared" si="1"/>
+        <v>149217.15515257762</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>194975.28491104773</v>
-      </c>
-      <c r="D19">
-        <f>(C19)/($C$2+C19)</f>
-        <v>0.97646178393037586</v>
+        <v>0.99334297072139144</v>
       </c>
       <c r="E19">
-        <f>$D$1*C19/($C$2+C19)/($C$2+C19)</f>
-        <v>1.6137820403790768E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7.2012447181338672E-5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>7.2495048844047652E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>-39</v>
       </c>
       <c r="C20">
+        <f t="shared" si="1"/>
+        <v>139822.6600229324</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>181253.24150271376</v>
-      </c>
-      <c r="D20">
-        <f>(C20)/($C$2+C20)</f>
-        <v>0.97472482887623446</v>
+        <v>0.9928988701119752</v>
       </c>
       <c r="E20">
-        <f>$D$1*C20/($C$2+C20)/($C$2+C20)</f>
-        <v>1.7297853531876352E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7.6782164843062971E-5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>7.7331304480590028E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>-38</v>
       </c>
       <c r="C21">
+        <f t="shared" si="1"/>
+        <v>131092.11233019421</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>168601.55001769049</v>
-      </c>
-      <c r="D21">
-        <f>(C21)/($C$2+C21)</f>
-        <v>0.97287964245259073</v>
+        <v>0.99242952525809969</v>
       </c>
       <c r="E21">
-        <f>$D$1*C21/($C$2+C21)/($C$2+C21)</f>
-        <v>1.8525528593170824E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8.1818341302959563E-5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>8.2442469939294884E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>-37</v>
       </c>
       <c r="C22">
+        <f t="shared" si="1"/>
+        <v>122973.83268636202</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
-        <v>156929.09908283915</v>
-      </c>
-      <c r="D22">
-        <f>(C22)/($C$2+C22)</f>
-        <v>0.9709210777844457</v>
+        <v>0.99193378168335034</v>
       </c>
       <c r="E22">
-        <f>$D$1*C22/($C$2+C22)/($C$2+C22)</f>
-        <v>1.9823407881810419E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8.7132571837637442E-5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>8.784111746831535E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>-36</v>
       </c>
       <c r="C23">
+        <f t="shared" si="1"/>
+        <v>115420.51346587918</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>146153.1470140724</v>
-      </c>
-      <c r="D23">
-        <f>(C23)/($C$2+C23)</f>
-        <v>0.96884387171875463</v>
+        <v>0.99141044846625692</v>
       </c>
       <c r="E23">
-        <f>$D$1*C23/($C$2+C23)/($C$2+C23)</f>
-        <v>2.1194021072517894E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9.2736747694913661E-5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>9.3540216202462186E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>-35</v>
       </c>
       <c r="C24">
+        <f t="shared" si="1"/>
+        <v>108388.82083252931</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="0"/>
-        <v>136198.49911082175</v>
-      </c>
-      <c r="D24">
-        <f>(C24)/($C$2+C24)</f>
-        <v>0.96664265389865311</v>
+        <v>0.99085829801995062</v>
       </c>
       <c r="E24">
-        <f>$D$1*C24/($C$2+C24)/($C$2+C24)</f>
-        <v>2.2639849097019601E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>9.8643049475385429E-5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>9.955313456273773E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>-34</v>
       </c>
       <c r="C25">
+        <f t="shared" si="1"/>
+        <v>101839.03545300908</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
-        <v>126996.77090242528</v>
-      </c>
-      <c r="D25">
-        <f>(C25)/($C$2+C25)</f>
-        <v>0.96431195717408857</v>
+        <v>0.99027606593551787</v>
       </c>
       <c r="E25">
-        <f>$D$1*C25/($C$2+C25)/($C$2+C25)</f>
-        <v>2.4163306638947282E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.0486393916992191E-4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>1.0589364196221033E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>-33</v>
       </c>
       <c r="C26">
+        <f t="shared" si="1"/>
+        <v>95734.727906122032</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
-        <v>118485.72785429748</v>
-      </c>
-      <c r="D26">
-        <f>(C26)/($C$2+C26)</f>
-        <v>0.96184622941418096</v>
+        <v>0.98966245089384586</v>
       </c>
       <c r="E26">
-        <f>$D$1*C26/($C$2+C26)/($C$2+C26)</f>
-        <v>2.5766723242655788E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.1141215077064285E-4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>1.1257590976601906E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>-32</v>
       </c>
       <c r="C27">
+        <f t="shared" si="1"/>
+        <v>90042.465231265785</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
-        <v>110608.69314479017</v>
-      </c>
-      <c r="D27">
-        <f>(C27)/($C$2+C27)</f>
-        <v>0.9592398467815576</v>
+        <v>0.98901611465089612</v>
       </c>
       <c r="E27">
-        <f>$D$1*C27/($C$2+C27)/($C$2+C27)</f>
-        <v>2.7452323047355272E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.1830067937186627E-4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>1.1961451145174128E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>-31</v>
       </c>
       <c r="C28">
+        <f t="shared" si="1"/>
+        <v>84731.54544482498</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="0"/>
-        <v>103314.01609232396</v>
-      </c>
-      <c r="D28">
-        <f>(C28)/($C$2+C28)</f>
-        <v>0.95648712852244366</v>
+        <v>0.98833568210147826</v>
       </c>
       <c r="E28">
-        <f>$D$1*C28/($C$2+C28)/($C$2+C28)</f>
-        <v>2.9222203176170714E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2554276867681014E-4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>1.2702442191490148E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>-30</v>
       </c>
       <c r="C29">
+        <f t="shared" si="1"/>
+        <v>79773.757194211386</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="0"/>
-        <v>96554.594663797325</v>
-      </c>
-      <c r="D29">
-        <f>(C29)/($C$2+C29)</f>
-        <v>0.95358235331832852</v>
+        <v>0.98761974142671594</v>
       </c>
       <c r="E29">
-        <f>$D$1*C29/($C$2+C29)/($C$2+C29)</f>
-        <v>3.107831083023042E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3315189682556577E-4</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>1.3482101586306333E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>-29</v>
       </c>
       <c r="C30">
+        <f t="shared" si="1"/>
+        <v>75143.162021839249</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="0"/>
-        <v>90287.446244269318</v>
-      </c>
-      <c r="D30">
-        <f>(C30)/($C$2+C30)</f>
-        <v>0.95051977723547276</v>
+        <v>0.9868668443305102</v>
       </c>
       <c r="E30">
-        <f>$D$1*C30/($C$2+C30)/($C$2+C30)</f>
-        <v>3.3022419160640404E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4114176046007684E-4</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>1.4302006524074412E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>-28</v>
       </c>
       <c r="C31">
+        <f t="shared" si="1"/>
+        <v>70815.896979850484</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="0"/>
-        <v>84473.321507356421</v>
-      </c>
-      <c r="D31">
-        <f>(C31)/($C$2+C31)</f>
-        <v>0.94729365329727822</v>
+        <v>0.98607550637039909</v>
       </c>
       <c r="E31">
-        <f>$D$1*C31/($C$2+C31)/($C$2+C31)</f>
-        <v>3.5056102016152115E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4952625694261714E-4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>1.5163773562635338E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>-27</v>
       </c>
       <c r="C32">
+        <f t="shared" si="1"/>
+        <v>66769.995574930668</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="0"/>
-        <v>79076.356806865442</v>
-      </c>
-      <c r="D32">
-        <f>(C32)/($C$2+C32)</f>
-        <v>0.94389825269156569</v>
+        <v>0.98524420738829266</v>
       </c>
       <c r="E32">
-        <f>$D$1*C32/($C$2+C32)/($C$2+C32)</f>
-        <v>3.718070769134836E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.5831946464561184E-4</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>1.6069058154149273E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>-26</v>
       </c>
       <c r="C33">
+        <f t="shared" si="1"/>
+        <v>62985.225234577236</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="0"/>
-        <v>74063.761022628983</v>
-      </c>
-      <c r="D33">
-        <f>(C33)/($C$2+C33)</f>
-        <v>0.94032788761001795</v>
+        <v>0.98437139204661883</v>
       </c>
       <c r="E33">
-        <f>$D$1*C33/($C$2+C33)/($C$2+C33)</f>
-        <v>3.9397331829056992E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.6753562123267732E-4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>1.7019554061232104E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>-25</v>
       </c>
       <c r="C34">
+        <f t="shared" si="1"/>
+        <v>59442.939674813817</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="0"/>
-        <v>69405.533245815939</v>
-      </c>
-      <c r="D34">
-        <f>(C34)/($C$2+C34)</f>
-        <v>0.93657693570047462</v>
+        <v>0.98345547047545911</v>
       </c>
       <c r="E34">
-        <f>$D$1*C34/($C$2+C34)/($C$2+C34)</f>
-        <v>4.1706789661162994E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.7718909985346834E-4</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>1.8016992652225008E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>-24</v>
       </c>
       <c r="C35">
+        <f t="shared" si="1"/>
+        <v>56125.944717253245</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="0"/>
-        <v>65074.20808850247</v>
-      </c>
-      <c r="D35">
-        <f>(C35)/($C$2+C35)</f>
-        <v>0.93263986609438188</v>
+        <v>0.98249481903626223</v>
       </c>
       <c r="E35">
-        <f>$D$1*C35/($C$2+C35)/($C$2+C35)</f>
-        <v>4.4109587803671704E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.8729438317846247E-4</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>1.9063142069510473E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>-23</v>
       </c>
       <c r="C36">
+        <f t="shared" si="1"/>
+        <v>53018.376253024493</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="0"/>
-        <v>61044.625755486806</v>
-      </c>
-      <c r="D36">
-        <f>(C36)/($C$2+C36)</f>
-        <v>0.92851126695161457</v>
+        <v>0.98148778120771429</v>
       </c>
       <c r="E36">
-        <f>$D$1*C36/($C$2+C36)/($C$2+C36)</f>
-        <v>4.660589585430274E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.9786603520415078E-4</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>2.0159806264799133E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>-22</v>
       </c>
       <c r="C37">
+        <f t="shared" si="1"/>
+        <v>50105.589184448523</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="0"/>
-        <v>57293.72432879269</v>
-      </c>
-      <c r="D37">
-        <f>(C37)/($C$2+C37)</f>
-        <v>0.92418587444314737</v>
+        <v>0.98043266859930267</v>
       </c>
       <c r="E37">
-        <f>$D$1*C37/($C$2+C37)/($C$2+C37)</f>
-        <v>4.9195518073527233E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2.0891867076439845E-4</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>2.1308823895359444E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>-21</v>
       </c>
       <c r="C38">
+        <f t="shared" si="1"/>
+        <v>47374.056294359681</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="0"/>
-        <v>53800.351991985961</v>
-      </c>
-      <c r="D38">
-        <f>(C38)/($C$2+C38)</f>
-        <v>0.91965860306885228</v>
+        <v>0.97932776209803607</v>
       </c>
       <c r="E38">
-        <f>$D$1*C38/($C$2+C38)/($C$2+C38)</f>
-        <v>5.1877865462125148E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2.2046692268994433E-4</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>2.251206707523874E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>-20</v>
       </c>
       <c r="C39">
+        <f t="shared" si="1"/>
+        <v>44811.27609920501</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="0"/>
-        <v>50545.097166565414</v>
-      </c>
-      <c r="D39">
-        <f>(C39)/($C$2+C39)</f>
-        <v>0.91492457718321363</v>
+        <v>0.97817131315367678</v>
       </c>
       <c r="E39">
-        <f>$D$1*C39/($C$2+C39)/($C$2+C39)</f>
-        <v>5.4651928579317797E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2.3252540656531489E-4</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>2.3771439975646039E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>-19</v>
       </c>
       <c r="C40">
+        <f t="shared" si="1"/>
+        <v>42405.68883699549</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="0"/>
-        <v>47510.13475009449</v>
-      </c>
-      <c r="D40">
-        <f>(C40)/($C$2+C40)</f>
-        <v>0.90997916357625386</v>
+        <v>0.97696154520769452</v>
       </c>
       <c r="E40">
-        <f>$D$1*C40/($C$2+C40)/($C$2+C40)</f>
-        <v>5.7516251474455405E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2.451086830407326E-4</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>2.5088877268820682E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>-18</v>
       </c>
       <c r="C41">
+        <f t="shared" si="1"/>
+        <v>40146.59982604695</v>
+      </c>
+      <c r="D41">
         <f t="shared" si="0"/>
-        <v>44679.086838650495</v>
-      </c>
-      <c r="D41">
-        <f>(C41)/($C$2+C41)</f>
-        <v>0.90481800493076014</v>
+        <v>0.97569665527096672</v>
       </c>
       <c r="E41">
-        <f>$D$1*C41/($C$2+C41)/($C$2+C41)</f>
-        <v>6.0468907131234242E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2.5823121766612394E-4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>2.6466342409917244E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>-17</v>
       </c>
       <c r="C42">
+        <f t="shared" si="1"/>
+        <v>38024.109506391906</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="0"/>
-        <v>42036.896487506747</v>
-      </c>
-      <c r="D42">
-        <f>(C42)/($C$2+C42)</f>
-        <v>0.8994370539503761</v>
+        <v>0.97437481565501949</v>
       </c>
       <c r="E42">
-        <f>$D$1*C42/($C$2+C42)/($C$2+C42)</f>
-        <v>6.3507474845482217E-5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2.7190733822498003E-4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>2.7905825751683804E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>-16</v>
       </c>
       <c r="C43">
+        <f t="shared" si="1"/>
+        <v>36029.049543728346</v>
+      </c>
+      <c r="D43">
         <f t="shared" si="0"/>
-        <v>39569.713216230128</v>
-      </c>
-      <c r="D43">
-        <f>(C43)/($C$2+C43)</f>
-        <v>0.89383260792670127</v>
+        <v>0.97299417586133075</v>
       </c>
       <c r="E43">
-        <f>$D$1*C43/($C$2+C43)/($C$2+C43)</f>
-        <v>6.6629019974692692E-5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2.8615118955772743E-4</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>2.9409342487010854E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>-15</v>
       </c>
       <c r="C44">
+        <f t="shared" si="1"/>
+        <v>34152.924436681831</v>
+      </c>
+      <c r="D44">
         <f t="shared" si="0"/>
-        <v>37264.789099808419</v>
-      </c>
-      <c r="D44">
-        <f>(C44)/($C$2+C44)</f>
-        <v>0.8880013434877132</v>
+        <v>0.97155286463289214</v>
       </c>
       <c r="E44">
-        <f>$D$1*C44/($C$2+C44)/($C$2+C44)</f>
-        <v>6.9830076508661196E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>3.0097668587742929E-4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>3.0978930414780399E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>-14</v>
       </c>
       <c r="C45">
+        <f t="shared" si="1"/>
+        <v>32387.858122765745</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="0"/>
-        <v>35110.384407958612</v>
-      </c>
-      <c r="D45">
-        <f>(C45)/($C$2+C45)</f>
-        <v>0.88194035124512871</v>
+        <v>0.9700489921718537</v>
       </c>
       <c r="E45">
-        <f>$D$1*C45/($C$2+C45)/($C$2+C45)</f>
-        <v>7.3106632914780319E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>3.1639746059506767E-4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>3.2616647524851488E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>-13</v>
       </c>
       <c r="C46">
+        <f t="shared" si="1"/>
+        <v>30726.545127410966</v>
+      </c>
+      <c r="D46">
         <f t="shared" si="0"/>
-        <v>33095.681862127269</v>
-      </c>
-      <c r="D46">
-        <f>(C46)/($C$2+C46)</f>
-        <v>0.87564717003532666</v>
+        <v>0.96848065252664328</v>
       </c>
       <c r="E46">
-        <f>$D$1*C46/($C$2+C46)/($C$2+C46)</f>
-        <v>7.6454121707805574E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>3.3242681368741294E-4</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>3.4324569398485504E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>-12</v>
       </c>
       <c r="C47">
+        <f t="shared" si="1"/>
+        <v>29162.205844414118</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="0"/>
-        <v>31210.708675386115</v>
-      </c>
-      <c r="D47">
-        <f>(C47)/($C$2+C47)</f>
-        <v>0.86911982042778591</v>
+        <v>0.96684592615147891</v>
       </c>
       <c r="E47">
-        <f>$D$1*C47/($C$2+C47)/($C$2+C47)</f>
-        <v>7.9867413181337207E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>3.4907765665751243E-4</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>3.6104786421039457E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>-11</v>
       </c>
       <c r="C48">
+        <f t="shared" si="1"/>
+        <v>27688.545575654156</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="0"/>
-        <v>29446.265625772492</v>
-      </c>
-      <c r="D48">
-        <f>(C48)/($C$2+C48)</f>
-        <v>0.86235683715725009</v>
+        <v>0.96514288264063741</v>
       </c>
       <c r="E48">
-        <f>$D$1*C48/($C$2+C48)/($C$2+C48)</f>
-        <v>8.334081371612787E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>3.6636245515617714E-4</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>3.7959400804345883E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>-10</v>
       </c>
       <c r="C49">
+        <f t="shared" si="1"/>
+        <v>26299.716993434966</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="0"/>
-        <v>27793.862489805339</v>
-      </c>
-      <c r="D49">
-        <f>(C49)/($C$2+C49)</f>
-        <v>0.85535730012168965</v>
+        <v>0.96336958363925607</v>
       </c>
       <c r="E49">
-        <f>$D$1*C49/($C$2+C49)/($C$2+C49)</f>
-        <v>8.6868069048029185E-5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>3.8429316935242934E-4</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>3.9890523416850166E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>-9</v>
       </c>
       <c r="C50">
+        <f t="shared" si="1"/>
+        <v>24990.285720745374</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="0"/>
-        <v>26245.659230943311</v>
-      </c>
-      <c r="D50">
-        <f>(C50)/($C$2+C50)</f>
-        <v>0.84812086357816685</v>
+        <v>0.96152408593177552</v>
       </c>
       <c r="E50">
-        <f>$D$1*C50/($C$2+C50)/($C$2+C50)</f>
-        <v>9.0442372835585416E-5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>4.0288119216169726E-4</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>4.190027042029642E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>-8</v>
       </c>
       <c r="C51">
+        <f t="shared" si="1"/>
+        <v>23755.198753470315</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="0"/>
-        <v>24794.4123985652</v>
-      </c>
-      <c r="D51">
-        <f>(C51)/($C$2+C51)</f>
-        <v>0.8406477831635446</v>
+        <v>0.95960444470841444</v>
       </c>
       <c r="E51">
-        <f>$D$1*C51/($C$2+C51)/($C$2+C51)</f>
-        <v>9.405638081383337E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>4.2213728546250037E-4</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>4.3990759712536669E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>-7</v>
       </c>
       <c r="C52">
+        <f t="shared" si="1"/>
+        <v>22589.755474466794</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="0"/>
-        <v>23433.426247436342</v>
-      </c>
-      <c r="D52">
-        <f>(C52)/($C$2+C52)</f>
-        <v>0.8329389403671269</v>
+        <v>0.9576087170092803</v>
       </c>
       <c r="E52">
-        <f>$D$1*C52/($C$2+C52)/($C$2+C52)</f>
-        <v>9.7702230756980534E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>4.420715144554408E-4</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>4.6164107176893698E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>-6</v>
       </c>
       <c r="C53">
+        <f t="shared" si="1"/>
+        <v>21489.581032742684</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="0"/>
-        <v>22156.508136301425</v>
-      </c>
-      <c r="D53">
-        <f>(C53)/($C$2+C53)</f>
-        <v>0.82499586408826175</v>
+        <v>0.95553496534488147</v>
       </c>
       <c r="E53">
-        <f>$D$1*C53/($C$2+C53)/($C$2+C53)</f>
-        <v>1.0137156839877224E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>4.6269318034230795E-4</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>4.8422422739424081E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>-5</v>
       </c>
       <c r="C54">
+        <f t="shared" si="1"/>
+        <v>20450.601882002295</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="0"/>
-        <v>20957.927807831034</v>
-      </c>
-      <c r="D54">
-        <f>(C54)/($C$2+C54)</f>
-        <v>0.81682074892402201</v>
+        <v>0.95338126149089408</v>
       </c>
       <c r="E54">
-        <f>$D$1*C54/($C$2+C54)/($C$2+C54)</f>
-        <v>1.050555793763898E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>4.8401075152799874E-4</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>5.0767806236416322E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>-4</v>
       </c>
       <c r="C55">
+        <f t="shared" si="1"/>
+        <v>19469.023291794834</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="0"/>
-        <v>19832.380191212062</v>
-      </c>
-      <c r="D55">
-        <f>(C55)/($C$2+C55)</f>
-        <v>0.80841646985058446</v>
+        <v>0.9511456904540796</v>
       </c>
       <c r="E55">
-        <f>$D$1*C55/($C$2+C55)/($C$2+C55)</f>
-        <v>1.0874502717280458E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>5.0603179357351169E-4</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>5.3202343095507345E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>-3</v>
       </c>
       <c r="C56">
+        <f t="shared" si="1"/>
+        <v>18541.308661627078</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="0"/>
-        <v>18774.951403698829</v>
-      </c>
-      <c r="D56">
-        <f>(C56)/($C$2+C56)</f>
-        <v>0.79978659298696375</v>
+        <v>0.94882635460522236</v>
       </c>
       <c r="E56">
-        <f>$D$1*C56/($C$2+C56)/($C$2+C56)</f>
-        <v>1.1243029693518853E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>5.2876289815436198E-4</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>5.5728099834912793E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>-2</v>
       </c>
       <c r="C57">
+        <f t="shared" si="1"/>
+        <v>17664.160483869742</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="0"/>
-        <v>17781.087658869827</v>
-      </c>
-      <c r="D57">
-        <f>(C57)/($C$2+C57)</f>
-        <v>0.79093538216129711</v>
+        <v>0.94642137797388548</v>
       </c>
       <c r="E57">
-        <f>$D$1*C57/($C$2+C57)/($C$2+C57)</f>
-        <v>1.161014449451017E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>5.5220961130520146E-4</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>5.8347119386438734E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>-1</v>
       </c>
       <c r="C58">
+        <f t="shared" si="1"/>
+        <v>16834.502815267311</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="0"/>
-        <v>16846.566817552888</v>
-      </c>
-      <c r="D58">
-        <f>(C58)/($C$2+C58)</f>
-        <v>0.78186780103774356</v>
+        <v>0.94392891069865181</v>
       </c>
       <c r="E58">
-        <f>$D$1*C58/($C$2+C58)/($C$2+C58)</f>
-        <v>1.1974825341189045E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>5.7637636125794313E-4</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>6.1061416249168221E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>0</v>
       </c>
       <c r="C59">
+        <f t="shared" si="1"/>
+        <v>16049.465129503385</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="0"/>
-        <v>15967.472342733094</v>
-      </c>
-      <c r="D59">
-        <f>(C59)/($C$2+C59)</f>
-        <v>0.77258951060589798</v>
+        <v>0.94134713362535105</v>
       </c>
       <c r="E59">
-        <f>$D$1*C59/($C$2+C59)/($C$2+C59)</f>
-        <v>1.2336029015642597E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>6.0126638620707688E-4</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>6.3872971481992774E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60">
+        <f t="shared" si="1"/>
+        <v>15306.367434711852</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="0"/>
-        <v>15140.169442546332</v>
-      </c>
-      <c r="D60">
-        <f>(C60)/($C$2+C60)</f>
-        <v>0.76310686188389776</v>
+        <v>0.93867426304455337</v>
       </c>
       <c r="E60">
-        <f>$D$1*C60/($C$2+C60)/($C$2+C60)</f>
-        <v>1.2692697265057553E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>6.2688166236184281E-4</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>6.6783727544481367E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>2</v>
       </c>
       <c r="C61">
+        <f t="shared" si="1"/>
+        <v>14602.706550180852</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="0"/>
-        <v>14361.283205961654</v>
-      </c>
-      <c r="D61">
-        <f>(C61)/($C$2+C61)</f>
-        <v>0.75342688374043898</v>
+        <v>0.93590855555836827</v>
       </c>
       <c r="E61">
-        <f>$D$1*C61/($C$2+C61)/($C$2+C61)</f>
-        <v>1.3043763578130061E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>6.5322283267017496E-4</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>6.9795582996936981E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>3</v>
       </c>
       <c r="C62">
+        <f t="shared" si="1"/>
+        <v>13936.143445876589</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="0"/>
-        <v>13627.678554205395</v>
-      </c>
-      <c r="D62">
-        <f>(C62)/($C$2+C62)</f>
-        <v>0.7435572657988615</v>
+        <v>0.93304831306530678</v>
       </c>
       <c r="E62">
-        <f>$D$1*C62/($C$2+C62)/($C$2+C62)</f>
-        <v>1.3388160261972826E-4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>6.8028913662357058E-4</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>7.2910387071880949E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>4</v>
       </c>
       <c r="C63">
+        <f t="shared" si="1"/>
+        <v>13304.491556916304</v>
+      </c>
+      <c r="D63">
         <f t="shared" si="0"/>
-        <v>12936.441847596421</v>
-      </c>
-      <c r="D63">
-        <f>(C63)/($C$2+C63)</f>
-        <v>0.73350633644730689</v>
+        <v>0.93009188785067343</v>
       </c>
       <c r="E63">
-        <f>$D$1*C63/($C$2+C63)/($C$2+C63)</f>
-        <v>1.3724825739756569E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7.0807834157492634E-4</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>7.6129934130616628E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>5</v>
       </c>
       <c r="C64">
+        <f t="shared" si="1"/>
+        <v>12705.705992830268</v>
+      </c>
+      <c r="D64">
         <f t="shared" si="0"/>
-        <v>12284.864002436114</v>
-      </c>
-      <c r="D64">
-        <f>(C64)/($C$2+C64)</f>
-        <v>0.7232830360416258</v>
+        <v>0.92703768776864759</v>
       </c>
       <c r="E64">
-        <f>$D$1*C64/($C$2+C64)/($C$2+C64)</f>
-        <v>1.4052711982827915E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7.365866760225047E-4</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>7.945595801994278E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>6</v>
       </c>
       <c r="C65">
+        <f t="shared" si="1"/>
+        <v>12137.873568447469</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="0"/>
-        <v>11670.424986096736</v>
-      </c>
-      <c r="D65">
-        <f>(C65)/($C$2+C65)</f>
-        <v>0.71289688545094765</v>
+        <v>0.92388418150090534</v>
       </c>
       <c r="E65">
-        <f>$D$1*C65/($C$2+C65)/($C$2+C65)</f>
-        <v>1.4370791986073278E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7.6580876533231855E-4</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>8.2890126345514024E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>7</v>
       </c>
       <c r="C66">
+        <f t="shared" si="1"/>
+        <v>11599.203589591287</v>
+      </c>
+      <c r="D66">
         <f t="shared" si="0"/>
-        <v>11090.779570633205</v>
-      </c>
-      <c r="D66">
-        <f>(C66)/($C$2+C66)</f>
-        <v>0.70235795015840807</v>
+        <v>0.92062990387534172</v>
       </c>
       <c r="E66">
-        <f>$D$1*C66/($C$2+C66)/($C$2+C66)</f>
-        <v>1.46780671920291E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7.9573757038778814E-4</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>8.6434034679752853E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>8</v>
       </c>
       <c r="C67">
+        <f t="shared" si="1"/>
+        <v>11088.019332538992</v>
+      </c>
+      <c r="D67">
         <f t="shared" si="0"/>
-        <v>10543.744236237724</v>
-      </c>
-      <c r="D67">
-        <f>(C67)/($C$2+C67)</f>
-        <v>0.69167680019013511</v>
+        <v>0.91727346122717046</v>
       </c>
       <c r="E67">
-        <f>$D$1*C67/($C$2+C67)/($C$2+C67)</f>
-        <v>1.4973574767814345E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8.2636432966936299E-4</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="3"/>
+        <v>9.0089200723611365E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>9</v>
       </c>
       <c r="C68">
+        <f t="shared" si="1"/>
+        <v>10602.750161442249</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="0"/>
-        <v>10027.285125789105</v>
-      </c>
-      <c r="D68">
-        <f>(C68)/($C$2+C68)</f>
-        <v>0.68086446620295415</v>
+        <v>0.91381353678344668</v>
       </c>
       <c r="E68">
-        <f>$D$1*C68/($C$2+C68)/($C$2+C68)</f>
-        <v>1.5256394639465905E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8.5767850527729945E-4</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>9.3857058442826512E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>10</v>
       </c>
       <c r="C69">
-        <f t="shared" si="0"/>
-        <v>9539.506960722847</v>
+        <f t="shared" si="1"/>
+        <v>10141.924232671568</v>
       </c>
       <c r="D69">
-        <f>(C69)/($C$2+C69)</f>
-        <v>0.66993239211412892</v>
+        <f t="shared" ref="D69:D132" si="4">(C69)/($C$2+C69)</f>
+        <v>0.91024889605085535</v>
       </c>
       <c r="E69">
-        <f>$D$1*C69/($C$2+C69)/($C$2+C69)</f>
-        <v>1.5525656190728098E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>8.896677334178034E-4</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>9.773895220061854E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>11</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:C133" si="1">C$4*EXP(C$3*((1/($B70+273.15))-1/(298.15)))</f>
-        <v>9078.642836564195</v>
+        <f t="shared" ref="C70:C133" si="5">C$4*EXP(C$3*((1/($B70+273.15))-1/(273.15+100)))</f>
+        <v>9704.1617393843735</v>
       </c>
       <c r="D70">
-        <f>(C70)/($C$2+C70)</f>
-        <v>0.65889238470368983</v>
+        <f t="shared" si="4"/>
+        <v>0.90657839218547598</v>
       </c>
       <c r="E70">
-        <f>$D$1*C70/($C$2+C70)/($C$2+C70)</f>
-        <v>1.5780544537754814E-4</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E70:E133" si="6">$D$1*$D$1*C70/($C$2+C70)/($C$2+C70)</f>
+        <v>9.2231777987573991E-4</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70:F133" si="7">$D$1*$D$1/($C$2+C70)</f>
+        <v>1.0173613091001663E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>12</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>8643.0448238095505</v>
+        <f t="shared" si="5"/>
+        <v>9288.1686535638455</v>
       </c>
       <c r="D71">
-        <f>(C71)/($C$2+C71)</f>
-        <v>0.64775656066048415</v>
+        <f t="shared" si="4"/>
+        <v>0.90280097132218007</v>
       </c>
       <c r="E71">
-        <f>$D$1*C71/($C$2+C71)/($C$2+C71)</f>
-        <v>1.6020306297444452E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>9.5561250099578067E-4</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>1.0584974223014586E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>13</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
-        <v>8231.1753064875338</v>
+        <f t="shared" si="5"/>
+        <v>8892.7309263691623</v>
       </c>
       <c r="D72">
-        <f>(C72)/($C$2+C72)</f>
-        <v>0.6365372915761166</v>
+        <f t="shared" si="4"/>
+        <v>0.8989156778403331</v>
       </c>
       <c r="E72">
-        <f>$D$1*C72/($C$2+C72)/($C$2+C72)</f>
-        <v>1.6244254775104109E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>9.8953381068801229E-4</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="7"/>
+        <v>1.1008082683187719E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>14</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
-        <v>7841.5989967524383</v>
+        <f t="shared" si="5"/>
+        <v>8516.709110913851</v>
       </c>
       <c r="D73">
-        <f>(C73)/($C$2+C73)</f>
-        <v>0.62524714741580933</v>
+        <f t="shared" si="4"/>
+        <v>0.89492165954161706</v>
       </c>
       <c r="E73">
-        <f>$D$1*C73/($C$2+C73)/($C$2+C73)</f>
-        <v>1.6451774506635495E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.0240616539631073E-3</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="7"/>
+        <v>1.1443031275917895E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>15</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
-        <v>7472.9755693177003</v>
+        <f t="shared" si="5"/>
+        <v>8159.0333745734806</v>
       </c>
       <c r="D74">
-        <f>(C74)/($C$2+C74)</f>
-        <v>0.61389883901135311</v>
+        <f t="shared" si="4"/>
+        <v>0.89081817271502539</v>
       </c>
       <c r="E74">
-        <f>$D$1*C74/($C$2+C74)/($C$2+C74)</f>
-        <v>1.6642325101216119E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.0591739874862486E-3</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="7"/>
+        <v>1.1889900991333734E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>16</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
-        <v>7124.0528644843407</v>
+        <f t="shared" si="5"/>
+        <v>7818.6988706474167</v>
       </c>
       <c r="D75">
-        <f>(C75)/($C$2+C75)</f>
-        <v>0.60250516012852995</v>
+        <f t="shared" si="4"/>
+        <v>0.88660458706346712</v>
       </c>
       <c r="E75">
-        <f>$D$1*C75/($C$2+C75)/($C$2+C75)</f>
-        <v>1.6815444342237887E-4</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.0948467676175832E-3</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="7"/>
+        <v>1.234876046878843E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>17</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
-        <v>6793.6606130069622</v>
+        <f t="shared" si="5"/>
+        <v>7494.7614416836268</v>
       </c>
       <c r="D76">
-        <f>(C76)/($C$2+C76)</f>
-        <v>0.59107892965960906</v>
+        <f t="shared" si="4"/>
+        <v>0.88228039046593831</v>
       </c>
       <c r="E76">
-        <f>$D$1*C76/($C$2+C76)/($C$2+C76)</f>
-        <v>1.6970750516761654E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.1310539463801348E-3</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="7"/>
+        <v>1.2819665478259325E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>18</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
-        <v>6480.7046401129192</v>
+        <f t="shared" si="5"/>
+        <v>7186.3336290437128</v>
       </c>
       <c r="D77">
-        <f>(C77)/($C$2+C77)</f>
-        <v>0.57963293448090469</v>
+        <f t="shared" si="4"/>
+        <v>0.87784519354889579</v>
       </c>
       <c r="E77">
-        <f>$D$1*C77/($C$2+C77)/($C$2+C77)</f>
-        <v>1.7107943956631228E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.1677674757636521E-3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="7"/>
+        <v>1.3302658422525244E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>19</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
-        <v>6184.1615096897376</v>
+        <f t="shared" si="5"/>
+        <v>6892.5809653572205</v>
       </c>
       <c r="D78">
-        <f>(C78)/($C$2+C78)</f>
-        <v>0.56817987349638499</v>
+        <f t="shared" si="4"/>
+        <v>0.87329873404032421</v>
       </c>
       <c r="E78">
-        <f>$D$1*C78/($C$2+C78)/($C$2+C78)</f>
-        <v>1.7226807787341616E-4</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.2049573207347762E-3</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="7"/>
+        <v>1.3797767863008693E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>20</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
-        <v>5903.0735730168162</v>
+        <f t="shared" si="5"/>
+        <v>6612.7185284073739</v>
       </c>
       <c r="D79">
-        <f>(C79)/($C$2+C79)</f>
-        <v>0.55673230336147306</v>
+        <f t="shared" si="4"/>
+        <v>0.86864088088001257</v>
       </c>
       <c r="E79">
-        <f>$D$1*C79/($C$2+C79)/($C$2+C79)</f>
-        <v>1.7327207893457359E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.2425914812802515E-3</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="7"/>
+        <v>1.4305008072166634E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>21</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
-        <v>5636.5443894727041</v>
+        <f t="shared" si="5"/>
+        <v>6346.0077367210688</v>
       </c>
       <c r="D80">
-        <f>(C80)/($C$2+C80)</f>
-        <v>0.54530258634725803</v>
+        <f t="shared" si="4"/>
+        <v>0.86387163805978295</v>
       </c>
       <c r="E80">
-        <f>$D$1*C80/($C$2+C80)/($C$2+C80)</f>
-        <v>1.7409092121528137E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.2806360237608671E-3</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="7"/>
+        <v>1.482437861528963E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>22</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
-        <v>5383.7344894285743</v>
+        <f t="shared" si="5"/>
+        <v>6091.7533687192645</v>
       </c>
       <c r="D81">
-        <f>(C81)/($C$2+C81)</f>
-        <v>0.53390284076526295</v>
+        <f t="shared" si="4"/>
+        <v>0.85899114816783384</v>
       </c>
       <c r="E81">
-        <f>$D$1*C81/($C$2+C81)/($C$2+C81)</f>
-        <v>1.7472488752777641E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.3190551217994583E-3</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="7"/>
+        <v>1.5355863964522894E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>23</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
-        <v>5143.8574520670099</v>
+        <f t="shared" si="5"/>
+        <v>5849.3007887323565</v>
       </c>
       <c r="D82">
-        <f>(C82)/($C$2+C82)</f>
-        <v>0.52254489432767071</v>
+        <f t="shared" si="4"/>
+        <v>0.8539996956119843</v>
       </c>
       <c r="E82">
-        <f>$D$1*C82/($C$2+C82)/($C$2+C82)</f>
-        <v>1.7517504288110398E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.3578111068671185E-3</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="7"/>
+        <v>1.5899433147854908E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>24</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
-        <v>4916.1762731678737</v>
+        <f t="shared" si="5"/>
+        <v>5618.0333645115907</v>
       </c>
       <c r="D83">
-        <f>(C83)/($C$2+C83)</f>
-        <v>0.51124024076862407</v>
+        <f t="shared" si="4"/>
+        <v>0.8488977094974498</v>
       </c>
       <c r="E83">
-        <f>$D$1*C83/($C$2+C83)/($C$2+C83)</f>
-        <v>1.7544320596992108E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.3968645286679465E-3</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="7"/>
+        <v>1.6455039435727713E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="3">
         <v>25</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
-        <v>4700</v>
+        <f t="shared" si="5"/>
+        <v>5397.3700620822428</v>
       </c>
       <c r="D84">
-        <f>(C84)/($C$2+C84)</f>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.84368576613582424</v>
       </c>
       <c r="E84">
-        <f>$D$1*C84/($C$2+C84)/($C$2+C84)</f>
-        <v>1.7553191489361701E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.4361742253548267E-3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="7"/>
+        <v>1.7022620067808733E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>26</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
-        <v>4494.6806123688402</v>
+        <f t="shared" si="5"/>
+        <v>5186.7632048975001</v>
       </c>
       <c r="D85">
-        <f>(C85)/($C$2+C85)</f>
-        <v>0.48883488202108072</v>
+        <f t="shared" si="4"/>
+        <v>0.83836459116321271</v>
       </c>
       <c r="E85">
-        <f>$D$1*C85/($C$2+C85)/($C$2+C85)</f>
-        <v>1.7544438775823521E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.4756974035373064E-3</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="7"/>
+        <v>1.7602096022326136E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
         <v>27</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
-        <v>4299.6101306126784</v>
+        <f t="shared" si="5"/>
+        <v>4985.6963852725148</v>
       </c>
       <c r="D86">
-        <f>(C86)/($C$2+C86)</f>
-        <v>0.4777551547469055</v>
+        <f t="shared" si="4"/>
+        <v>0.83293506124693417</v>
       </c>
       <c r="E86">
-        <f>$D$1*C86/($C$2+C86)/($C$2+C86)</f>
-        <v>1.7518447885891432E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.5153897279683267E-3</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="7"/>
+        <v>1.8193371830208863E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>28</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
-        <v>4114.217932929585</v>
+        <f t="shared" si="5"/>
+        <v>4793.6825170138291</v>
       </c>
       <c r="D87">
-        <f>(C87)/($C$2+C87)</f>
-        <v>0.46677061586587532</v>
+        <f t="shared" si="4"/>
+        <v>0.82739820536189501</v>
       </c>
       <c r="E87">
-        <f>$D$1*C87/($C$2+C87)/($C$2+C87)</f>
-        <v>1.7475663117004687E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.5552054207200751E-3</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="7"/>
+        <v>1.8796335436089629E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>29</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
-        <v>3937.9682658682855</v>
+        <f t="shared" si="5"/>
+        <v>4610.2620190186335</v>
       </c>
       <c r="D88">
-        <f>(C88)/($C$2+C88)</f>
-        <v>0.45589056878439949</v>
+        <f t="shared" si="4"/>
+        <v>0.82175520561962567</v>
       </c>
       <c r="E88">
-        <f>$D$1*C88/($C$2+C88)/($C$2+C88)</f>
-        <v>1.7416582588443817E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.5950973695811623E-3</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="7"/>
+        <v>1.9410858108022762E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>30</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
-        <v>3770.3579331403766</v>
+        <f t="shared" si="5"/>
+        <v>4435.0011204061466</v>
       </c>
       <c r="D89">
-        <f>(C89)/($C$2+C89)</f>
-        <v>0.44512380266585977</v>
+        <f t="shared" si="4"/>
+        <v>0.81600739763504004</v>
       </c>
       <c r="E89">
-        <f>$D$1*C89/($C$2+C89)/($C$2+C89)</f>
-        <v>1.7341752974218657E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.6350172453288344E-3</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="7"/>
+        <v>2.0036794397544138E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>31</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
-        <v>3610.9141491215773</v>
+        <f t="shared" si="5"/>
+        <v>4267.4902784677161</v>
       </c>
       <c r="D90">
-        <f>(C90)/($C$2+C90)</f>
-        <v>0.43447857652376698</v>
+        <f t="shared" si="4"/>
+        <v>0.81015627041823524</v>
       </c>
       <c r="E90">
-        <f>$D$1*C90/($C$2+C90)/($C$2+C90)</f>
-        <v>1.7251764087588056E-4</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.6749156274515284E-3</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="7"/>
+        <v>2.0673982151454182E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>32</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
-        <v>3459.1925445156435</v>
+        <f t="shared" si="5"/>
+        <v>4107.3427013874689</v>
       </c>
       <c r="D91">
-        <f>(C91)/($C$2+C91)</f>
-        <v>0.42396260728530127</v>
+        <f t="shared" si="4"/>
+        <v>0.80420346578107271</v>
       </c>
       <c r="E91">
-        <f>$D$1*C91/($C$2+C91)/($C$2+C91)</f>
-        <v>1.714724338723824E-4</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.7147421378198742E-3</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="7"/>
+        <v>2.1322242576441177E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
         <v>33</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
-        <v>3314.7753126654156</v>
+        <f t="shared" si="5"/>
+        <v>3954.192968296416</v>
       </c>
       <c r="D92">
-        <f>(C92)/($C$2+C92)</f>
-        <v>0.41358306170195619</v>
+        <f t="shared" si="4"/>
+        <v>0.79815077725083694</v>
       </c>
       <c r="E92">
-        <f>$D$1*C92/($C$2+C92)/($C$2+C92)</f>
-        <v>1.7028850471449659E-4</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.7544455817292194E-3</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="7"/>
+        <v>2.1981380357383841E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>34</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
-        <v>3177.2694859206813</v>
+        <f t="shared" si="5"/>
+        <v>3807.6957397854171</v>
       </c>
       <c r="D93">
-        <f>(C93)/($C$2+C93)</f>
-        <v>0.40334655194919078</v>
+        <f t="shared" si="4"/>
+        <v>0.79200014848597033</v>
       </c>
       <c r="E93">
-        <f>$D$1*C93/($C$2+C93)/($C$2+C93)</f>
-        <v>1.6897271621992243E-4</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.7939740956646256E-3</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="7"/>
+        <v>2.2651183829877834E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="2">
         <v>35</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
-        <v>3046.3053323189474</v>
+        <f t="shared" si="5"/>
+        <v>3667.5245525195205</v>
       </c>
       <c r="D94">
-        <f>(C94)/($C$2+C94)</f>
-        <v>0.39325913472700674</v>
+        <f t="shared" si="4"/>
+        <v>0.78575367119168082</v>
       </c>
       <c r="E94">
-        <f>$D$1*C94/($C$2+C94)/($C$2+C94)</f>
-        <v>1.6753214454181915E-4</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.8332753010711915E-3</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="7"/>
+        <v>2.3331425207225955E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="2">
         <v>36</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
-        <v>2921.5348636100016</v>
+        <f t="shared" si="5"/>
+        <v>3533.3706920719401</v>
       </c>
       <c r="D95">
-        <f>(C95)/($C$2+C95)</f>
-        <v>0.38332631364834996</v>
+        <f t="shared" si="4"/>
+        <v>0.77941358253609794</v>
       </c>
       <c r="E95">
-        <f>$D$1*C95/($C$2+C95)/($C$2+C95)</f>
-        <v>1.6597402723686922E-4</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.8722964633493978E-3</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="7"/>
+        <v>2.4021860861818943E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
         <v>37</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
-        <v>2802.630446365381</v>
+        <f t="shared" si="5"/>
+        <v>3404.9421385345072</v>
       </c>
       <c r="D96">
-        <f>(C96)/($C$2+C96)</f>
-        <v>0.37355304468222927</v>
+        <f t="shared" si="4"/>
+        <v>0.7729822620705995</v>
       </c>
       <c r="E96">
-        <f>$D$1*C96/($C$2+C96)/($C$2+C96)</f>
-        <v>1.6430571334465039E-4</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.9109846552375744E-3</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="7"/>
+        <v>2.4722231660511719E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="2">
         <v>38</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
-        <v>2689.2835085640231</v>
+        <f t="shared" si="5"/>
+        <v>3281.9625798646539</v>
       </c>
       <c r="D97">
-        <f>(C97)/($C$2+C97)</f>
-        <v>0.36394374440325644</v>
+        <f t="shared" si="4"/>
+        <v>0.76646222816089893</v>
       </c>
       <c r="E97">
-        <f>$D$1*C97/($C$2+C97)/($C$2+C97)</f>
-        <v>1.6253461585805931E-4</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.9492869236928307E-3</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="7"/>
+        <v>2.5432263353278102E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="2">
         <v>39</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
-        <v>2581.2033346419989</v>
+        <f t="shared" si="5"/>
+        <v>3164.1704883011548</v>
       </c>
       <c r="D98">
-        <f>(C98)/($C$2+C98)</f>
-        <v>0.35450230078884493</v>
+        <f t="shared" si="4"/>
+        <v>0.75985613393846241</v>
       </c>
       <c r="E98">
-        <f>$D$1*C98/($C$2+C98)/($C$2+C98)</f>
-        <v>1.6066816690001251E-4</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1.9871504593381127E-3</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="7"/>
+        <v>2.6151667014101434E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="2">
         <v>40</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
-        <v>2478.1159425411192</v>
+        <f t="shared" si="5"/>
+        <v>3051.3182555235662</v>
       </c>
       <c r="D99">
-        <f>(C99)/($C$2+C99)</f>
-        <v>0.34523208629921398</v>
+        <f t="shared" si="4"/>
+        <v>0.7531667627847799</v>
       </c>
       <c r="E99">
-        <f>$D$1*C99/($C$2+C99)/($C$2+C99)</f>
-        <v>1.5871377585802767E-4</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.0245227675075063E-3</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="7"/>
+        <v>2.6880139532737463E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="2">
         <v>41</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
-        <v>2379.7630367930201</v>
+        <f t="shared" si="5"/>
+        <v>2943.171382546343</v>
       </c>
       <c r="D100">
-        <f>(C100)/($C$2+C100)</f>
-        <v>0.33613597297332731</v>
+        <f t="shared" si="4"/>
+        <v>0.74639702336390978</v>
       </c>
       <c r="E100">
-        <f>$D$1*C100/($C$2+C100)/($C$2+C100)</f>
-        <v>1.5667879066676301E-4</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.0613518398949395E-3</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="7"/>
+        <v>2.7617364155670229E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="2">
         <v>42</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
-        <v>2285.9010321361852</v>
+        <f t="shared" si="5"/>
+        <v>2839.5077206303981</v>
       </c>
       <c r="D101">
-        <f>(C101)/($C$2+C101)</f>
-        <v>0.3272163492755909</v>
+        <f t="shared" si="4"/>
+        <v>0.73954994422154385</v>
       </c>
       <c r="E101">
-        <f>$D$1*C101/($C$2+C101)/($C$2+C101)</f>
-        <v>1.5457046237015739E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.0975863257934268E-3</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="7"/>
+        <v>2.8363011074273867E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
         <v>43</v>
       </c>
       <c r="C102">
-        <f t="shared" si="1"/>
-        <v>2196.300142586304</v>
+        <f t="shared" si="5"/>
+        <v>2740.1167597638687</v>
       </c>
       <c r="D102">
-        <f>(C102)/($C$2+C102)</f>
-        <v>0.31847513843308889</v>
+        <f t="shared" si="4"/>
+        <v>0.73262866797154891</v>
       </c>
       <c r="E102">
-        <f>$D$1*C102/($C$2+C102)/($C$2+C102)</f>
-        <v>1.5239591304027137E-4</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.1331757019034548E-3</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="7"/>
+        <v>2.911673805789832E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="2">
         <v>44</v>
       </c>
       <c r="C103">
-        <f t="shared" si="1"/>
-        <v>2110.7435312691737</v>
+        <f t="shared" si="5"/>
+        <v>2644.7989615124407</v>
       </c>
       <c r="D103">
-        <f>(C103)/($C$2+C103)</f>
-        <v>0.30991381801097406</v>
+        <f t="shared" si="4"/>
+        <v>0.72563644509351999</v>
       </c>
       <c r="E103">
-        <f>$D$1*C103/($C$2+C103)/($C$2+C103)</f>
-        <v>1.5016210707990537E-4</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.168070439690137E-3</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="7"/>
+        <v>2.9878191129315674E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="2">
         <v>45</v>
       </c>
       <c r="C104">
-        <f t="shared" si="1"/>
-        <v>2029.026516682492</v>
+        <f t="shared" si="5"/>
+        <v>2553.3651332689642</v>
       </c>
       <c r="D104">
-        <f>(C104)/($C$2+C104)</f>
-        <v>0.30153344048387426</v>
+        <f t="shared" si="4"/>
+        <v>0.71857662736729866</v>
       </c>
       <c r="E104">
-        <f>$D$1*C104/($C$2+C104)/($C$2+C104)</f>
-        <v>1.478758258909885E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.2022221692795463E-3</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="7"/>
+        <v>3.0647005279701169E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="2">
         <v>46</v>
       </c>
       <c r="C105">
-        <f t="shared" si="1"/>
-        <v>1950.9558313814446</v>
+        <f t="shared" si="5"/>
+        <v>2465.6358411442234</v>
       </c>
       <c r="D105">
-        <f>(C105)/($C$2+C105)</f>
-        <v>0.29333465457343427</v>
+        <f t="shared" si="4"/>
+        <v>0.71145266097264348</v>
       </c>
       <c r="E105">
-        <f>$D$1*C105/($C$2+C105)/($C$2+C105)</f>
-        <v>1.4554364585086602E-4</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.2355838389050363E-3</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="7"/>
+        <v>3.1422805220079116E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="2">
         <v>47</v>
       </c>
       <c r="C106">
-        <f t="shared" si="1"/>
-        <v>1876.3489293851148</v>
+        <f t="shared" si="5"/>
+        <v>2381.4408589366581</v>
       </c>
       <c r="D106">
-        <f>(C106)/($C$2+C106)</f>
-        <v>0.28531772713595244</v>
+        <f t="shared" si="4"/>
+        <v>0.70426807928426582</v>
       </c>
       <c r="E106">
-        <f>$D$1*C106/($C$2+C106)/($C$2+C106)</f>
-        <v>1.4317191950407614E-4</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.2681098689442789E-3</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="7"/>
+        <v>3.2205206165943452E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
         <v>48</v>
       </c>
       <c r="C107">
-        <f t="shared" si="1"/>
-        <v>1805.0333388787576</v>
+        <f t="shared" si="5"/>
+        <v>2300.6186508000405</v>
       </c>
       <c r="D107">
-        <f>(C107)/($C$2+C107)</f>
-        <v>0.27748256539910104</v>
+        <f t="shared" si="4"/>
+        <v>0.6970264953942471</v>
       </c>
       <c r="E107">
-        <f>$D$1*C107/($C$2+C107)/($C$2+C107)</f>
-        <v>1.4076675984797752E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.299756299626875E-3</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="7"/>
+        <v>3.2993814651566485E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
         <v>49</v>
       </c>
       <c r="C108">
-        <f t="shared" si="1"/>
-        <v>1736.8460570430175</v>
+        <f t="shared" si="5"/>
+        <v>2223.0158853957937</v>
       </c>
       <c r="D108">
-        <f>(C108)/($C$2+C108)</f>
-        <v>0.26982873936259649</v>
+        <f t="shared" si="4"/>
+        <v>0.68973159439541587</v>
       </c>
       <c r="E108">
-        <f>$D$1*C108/($C$2+C108)/($C$2+C108)</f>
-        <v>1.3833402756654081E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.330480931540208E-3</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="7"/>
+        <v>3.378822937033921E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
         <v>50</v>
       </c>
       <c r="C109">
-        <f t="shared" si="1"/>
-        <v>1671.6329840767617</v>
+        <f t="shared" si="5"/>
+        <v>2148.4869794715833</v>
       </c>
       <c r="D109">
-        <f>(C109)/($C$2+C109)</f>
-        <v>0.26235550419402859</v>
+        <f t="shared" si="4"/>
+        <v>0.68238712546054991</v>
       </c>
       <c r="E109">
-        <f>$D$1*C109/($C$2+C109)/($C$2+C109)</f>
-        <v>1.3587932104751376E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.3602434581173272E-3</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="7"/>
+        <v>3.4588042037346106E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>51</v>
       </c>
       <c r="C110">
-        <f t="shared" si="1"/>
-        <v>1609.248393697565</v>
+        <f t="shared" si="5"/>
+        <v>2076.8936689516245</v>
       </c>
       <c r="D110">
-        <f>(C110)/($C$2+C110)</f>
-        <v>0.25506182246764536</v>
+        <f t="shared" si="4"/>
+        <v>0.67499689375332705</v>
       </c>
       <c r="E110">
-        <f>$D$1*C110/($C$2+C110)/($C$2+C110)</f>
-        <v>1.3340796900372868E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.3890055893541185E-3</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="7"/>
+        <v>3.5392838270262676E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>52</v>
       </c>
       <c r="C111">
-        <f t="shared" si="1"/>
-        <v>1549.5544376038433</v>
+        <f t="shared" si="5"/>
+        <v>2008.1046057568039</v>
       </c>
       <c r="D111">
-        <f>(C111)/($C$2+C111)</f>
-        <v>0.24794638611036113</v>
+        <f t="shared" si="4"/>
+        <v>0.66756475220767408</v>
       </c>
       <c r="E111">
-        <f>$D$1*C111/($C$2+C111)/($C$2+C111)</f>
-        <v>1.309250255091639E-4</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.4167311660734546E-3</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="7"/>
+        <v>3.620219848458429E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>53</v>
       </c>
       <c r="C112">
-        <f t="shared" si="1"/>
-        <v>1492.4206815673724</v>
+        <f t="shared" si="5"/>
+        <v>1941.9949786961215</v>
       </c>
       <c r="D112">
-        <f>(C112)/($C$2+C112)</f>
-        <v>0.24100763793548077</v>
+        <f t="shared" si="4"/>
+        <v>0.66009459321266573</v>
       </c>
       <c r="E112">
-        <f>$D$1*C112/($C$2+C112)/($C$2+C112)</f>
-        <v>1.2843526725412664E-4</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.4433862641301336E-3</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="7"/>
+        <v>3.7015698799140696E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>54</v>
       </c>
       <c r="C113">
-        <f t="shared" si="1"/>
-        <v>1437.723670995025</v>
+        <f t="shared" si="5"/>
+        <v>1878.4461568848881</v>
       </c>
       <c r="D113">
-        <f>(C113)/($C$2+C113)</f>
-        <v>0.2342437926603409</v>
+        <f t="shared" si="4"/>
+        <v>0.65259034024029816</v>
       </c>
       <c r="E113">
-        <f>$D$1*C113/($C$2+C113)/($C$2+C113)</f>
-        <v>1.2594319282116008E-4</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.4689392880316613E-3</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="7"/>
+        <v>3.7832911947831512E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>55</v>
       </c>
       <c r="C114">
-        <f t="shared" si="1"/>
-        <v>1385.3465239557174</v>
+        <f t="shared" si="5"/>
+        <v>1817.3453542509938</v>
       </c>
       <c r="D114">
-        <f>(C114)/($C$2+C114)</f>
-        <v>0.22765285731915677</v>
+        <f t="shared" si="4"/>
+        <v>0.64505593945338113</v>
       </c>
       <c r="E114">
-        <f>$D$1*C114/($C$2+C114)/($C$2+C114)</f>
-        <v>1.2345302378357774E-4</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.4933610535350439E-3</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="7"/>
+        <v>3.8653408193526787E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>56</v>
       </c>
       <c r="C115">
-        <f t="shared" si="1"/>
-        <v>1335.1785498134998</v>
+        <f t="shared" si="5"/>
+        <v>1758.5853137885988</v>
       </c>
       <c r="D115">
-        <f>(C115)/($C$2+C115)</f>
-        <v>0.22123265099667347</v>
+        <f t="shared" si="4"/>
+        <v>0.63749535133041968</v>
       </c>
       <c r="E115">
-        <f>$D$1*C115/($C$2+C115)/($C$2+C115)</f>
-        <v>1.2096870743146169E-4</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.5166248588678912E-3</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="7"/>
+        <v>3.9476756240117289E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>57</v>
       </c>
       <c r="C116">
-        <f t="shared" si="1"/>
-        <v>1287.1148917416685</v>
+        <f t="shared" si="5"/>
+        <v>1702.0640103096537</v>
       </c>
       <c r="D116">
-        <f>(C116)/($C$2+C116)</f>
-        <v>0.21498082382167935</v>
+        <f t="shared" si="4"/>
+        <v>0.62991254234373184</v>
       </c>
       <c r="E116">
-        <f>$D$1*C116/($C$2+C116)/($C$2+C116)</f>
-        <v>1.1849392093512417E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.5387065443120715E-3</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="7"/>
+        <v>4.030252413876759E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
         <v>58</v>
       </c>
       <c r="C117">
-        <f t="shared" si="1"/>
-        <v>1241.056191516396</v>
+        <f t="shared" si="5"/>
+        <v>1647.6843705280107</v>
       </c>
       <c r="D117">
-        <f>(C117)/($C$2+C117)</f>
-        <v>0.20889487517195635</v>
+        <f t="shared" si="4"/>
+        <v>0.62231147672614151</v>
       </c>
       <c r="E117">
-        <f>$D$1*C117/($C$2+C117)/($C$2+C117)</f>
-        <v>1.1603207676302171E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.5595845399790582E-3</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="7"/>
+        <v>4.113028018452319E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="2">
         <v>59</v>
       </c>
       <c r="C118">
-        <f t="shared" si="1"/>
-        <v>1196.9082751027338</v>
+        <f t="shared" si="5"/>
+        <v>1595.35400938934</v>
       </c>
       <c r="D118">
-        <f>(C118)/($C$2+C118)</f>
-        <v>0.20297217105380222</v>
+        <f t="shared" si="4"/>
+        <v>0.61469610836045852</v>
       </c>
       <c r="E118">
-        <f>$D$1*C118/($C$2+C118)/($C$2+C118)</f>
-        <v>1.1358632917956965E-4</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.5792399016966597E-3</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="7"/>
+        <v>4.1959593799546077E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="2">
         <v>60</v>
       </c>
       <c r="C119">
-        <f t="shared" si="1"/>
-        <v>1154.5818576514439</v>
+        <f t="shared" si="5"/>
+        <v>1544.9849816327808</v>
       </c>
       <c r="D119">
-        <f>(C119)/($C$2+C119)</f>
-        <v>0.19720996062981047</v>
+        <f t="shared" si="4"/>
+        <v>0.60707037282458465</v>
       </c>
       <c r="E119">
-        <f>$D$1*C119/($C$2+C119)/($C$2+C119)</f>
-        <v>1.1115958165788445E-4</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.5976563350162971E-3</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="7"/>
+        <v>4.2790036399402735E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="2">
         <v>61</v>
       </c>
       <c r="C120">
-        <f t="shared" si="1"/>
-        <v>1113.9922666228688</v>
+        <f t="shared" si="5"/>
+        <v>1496.4935476379103</v>
       </c>
       <c r="D120">
-        <f>(C120)/($C$2+C120)</f>
-        <v>0.19160539187816039</v>
+        <f t="shared" si="4"/>
+        <v>0.59943817962351109</v>
       </c>
       <c r="E120">
-        <f>$D$1*C120/($C$2+C120)/($C$2+C120)</f>
-        <v>1.0875449505288171E-4</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.6148202074371368E-3</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="7"/>
+        <v>4.3621182238999627E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="2">
         <v>62</v>
       </c>
       <c r="C121">
-        <f t="shared" si="1"/>
-        <v>1075.0591818444314</v>
+        <f t="shared" si="5"/>
+        <v>1449.7999526734188</v>
       </c>
       <c r="D121">
-        <f>(C121)/($C$2+C121)</f>
-        <v>0.18615552637524316</v>
+        <f t="shared" si="4"/>
+        <v>0.59180340463770542</v>
       </c>
       <c r="E121">
-        <f>$D$1*C121/($C$2+C121)/($C$2+C121)</f>
-        <v>1.0637349639109738E-4</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.6307205490275209E-3</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="7"/>
+        <v>4.4452609234953873E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="2">
         <v>63</v>
       </c>
       <c r="C122">
-        <f t="shared" si="1"/>
-        <v>1037.7063913919872</v>
+        <f t="shared" si="5"/>
+        <v>1404.8282187222392</v>
       </c>
       <c r="D122">
-        <f>(C122)/($C$2+C122)</f>
-        <v>0.18085735320106472</v>
+        <f t="shared" si="4"/>
+        <v>0.58416988281544224</v>
       </c>
       <c r="E122">
-        <f>$D$1*C122/($C$2+C122)/($C$2+C122)</f>
-        <v>1.0401878814484278E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.6453490417042294E-3</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="7"/>
+        <v>4.5283899761398329E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="2">
         <v>64</v>
       </c>
       <c r="C123">
-        <f t="shared" si="1"/>
-        <v>1001.8615622627099</v>
+        <f t="shared" si="5"/>
+        <v>1361.5059481121939</v>
       </c>
       <c r="D123">
-        <f>(C123)/($C$2+C123)</f>
-        <v>0.17570780197356003</v>
+        <f t="shared" si="4"/>
+        <v>0.57654140113455665</v>
       </c>
       <c r="E123">
-        <f>$D$1*C123/($C$2+C123)/($C$2+C123)</f>
-        <v>1.0169235786963721E-4</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.6586999975055882E-3</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="7"/>
+        <v>4.6114641416446778E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
         <v>65</v>
       </c>
       <c r="C124">
-        <f t="shared" si="1"/>
-        <v>967.45602487893086</v>
+        <f t="shared" si="5"/>
+        <v>1319.7641382317502</v>
       </c>
       <c r="D124">
-        <f>(C124)/($C$2+C124)</f>
-        <v>0.1707037550237715</v>
+        <f t="shared" si="4"/>
+        <v>0.56892169185689101</v>
       </c>
       <c r="E124">
-        <f>$D$1*C124/($C$2+C124)/($C$2+C124)</f>
-        <v>9.9395988095113562E-5</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.670770326264347E-3</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="7"/>
+        <v>4.6944427756784564E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
         <v>66</v>
       </c>
       <c r="C125">
-        <f t="shared" si="1"/>
-        <v>934.42457052873556</v>
+        <f t="shared" si="5"/>
+        <v>1279.5370066573726</v>
       </c>
       <c r="D125">
-        <f>(C125)/($C$2+C125)</f>
-        <v>0.16584205872882046</v>
+        <f t="shared" si="4"/>
+        <v>0.56131442609639304</v>
       </c>
       <c r="E125">
-        <f>$D$1*C125/($C$2+C125)/($C$2+C125)</f>
-        <v>9.7131266370604856E-5</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.6815594931503981E-3</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="7"/>
+        <v>4.777285899810281E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>67</v>
       </c>
       <c r="C126">
-        <f t="shared" si="1"/>
-        <v>902.70526091074873</v>
+        <f t="shared" si="5"/>
+        <v>1240.7618260627753</v>
       </c>
       <c r="D126">
-        <f>(C126)/($C$2+C126)</f>
-        <v>0.16111953402382073</v>
+        <f t="shared" si="4"/>
+        <v>0.55372320771945138</v>
       </c>
       <c r="E126">
-        <f>$D$1*C126/($C$2+C126)/($C$2+C126)</f>
-        <v>9.4899595377283635E-5</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.6910694666109031E-3</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="7"/>
+        <v>4.8599542679351746E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="2">
         <v>68</v>
       </c>
       <c r="C127">
-        <f t="shared" si="1"/>
-        <v>872.2392490075938</v>
+        <f t="shared" si="5"/>
+        <v>1203.3787683210437</v>
       </c>
       <c r="D127">
-        <f>(C127)/($C$2+C127)</f>
-        <v>0.15653298611737429</v>
+        <f t="shared" si="4"/>
+        <v>0.54615156759362271</v>
       </c>
       <c r="E127">
-        <f>$D$1*C127/($C$2+C127)/($C$2+C127)</f>
-        <v>9.2702203028940903E-5</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.6993046572862116E-3</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="7"/>
+        <v>4.9424094289054477E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>69</v>
       </c>
       <c r="C128">
-        <f t="shared" si="1"/>
-        <v>842.97061056543691</v>
+        <f t="shared" si="5"/>
+        <v>1167.3307572485051</v>
       </c>
       <c r="D128">
-        <f>(C128)/($C$2+C128)</f>
-        <v>0.15207921343812533</v>
+        <f t="shared" si="4"/>
+        <v>0.53860295819843773</v>
       </c>
       <c r="E128">
-        <f>$D$1*C128/($C$2+C128)/($C$2+C128)</f>
-        <v>9.0540152493180705E-5</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.70627184852361E-3</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="7"/>
+        <v>5.024613785219012E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="2">
         <v>70</v>
       </c>
       <c r="C129">
-        <f t="shared" si="1"/>
-        <v>814.84618550614698</v>
+        <f t="shared" si="5"/>
+        <v>1132.5633294745669</v>
       </c>
       <c r="D129">
-        <f>(C129)/($C$2+C129)</f>
-        <v>0.14775501584208939</v>
+        <f t="shared" si="4"/>
+        <v>0.5310807486095217</v>
       </c>
       <c r="E129">
-        <f>$D$1*C129/($C$2+C129)/($C$2+C129)</f>
-        <v>8.8414352073927206E-5</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.7119801191473436E-3</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="7"/>
+        <v>5.1065306476423093E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="2">
         <v>71</v>
       </c>
       <c r="C130">
-        <f t="shared" si="1"/>
-        <v>787.81542864416542</v>
+        <f t="shared" si="5"/>
+        <v>1099.0245029546447</v>
       </c>
       <c r="D130">
-        <f>(C130)/($C$2+C130)</f>
-        <v>0.14355720211217182</v>
+        <f t="shared" si="4"/>
+        <v>0.52358821986481219</v>
       </c>
       <c r="E130">
-        <f>$D$1*C130/($C$2+C130)/($C$2+C130)</f>
-        <v>8.6325564904650995E-5</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.7164407591725045E-3</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="7"/>
+        <v>5.1881242856721939E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="2">
         <v>72</v>
       </c>
       <c r="C131">
-        <f t="shared" si="1"/>
-        <v>761.83026912248272</v>
+        <f t="shared" si="5"/>
+        <v>1066.6646526739967</v>
       </c>
       <c r="D131">
-        <f>(C131)/($C$2+C131)</f>
-        <v>0.1394825967825033</v>
+        <f t="shared" si="4"/>
+        <v>0.51612856071925872</v>
       </c>
       <c r="E131">
-        <f>$D$1*C131/($C$2+C131)/($C$2+C131)</f>
-        <v>8.4274418409602673E-5</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.7196671791721722E-3</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="7"/>
+        <v>5.2693599737672712E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="2">
         <v>73</v>
       </c>
       <c r="C132">
-        <f t="shared" si="1"/>
-        <v>736.84497802137855</v>
+        <f t="shared" si="5"/>
+        <v>1035.4363931188518</v>
       </c>
       <c r="D132">
-        <f>(C132)/($C$2+C132)</f>
-        <v>0.13552804632100016</v>
+        <f t="shared" si="4"/>
+        <v>0.50870486379202284</v>
       </c>
       <c r="E132">
-        <f>$D$1*C132/($C$2+C132)/($C$2+C132)</f>
-        <v>8.2261413497587845E-5</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.7216748140218854E-3</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="7"/>
+        <v>5.35020403330487E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="2">
         <v>74</v>
       </c>
       <c r="C133">
-        <f t="shared" si="1"/>
-        <v>712.81604363009831</v>
+        <f t="shared" si="5"/>
+        <v>1005.294467117955</v>
       </c>
       <c r="D133">
-        <f>(C133)/($C$2+C133)</f>
-        <v>0.13169042470396777</v>
+        <f t="shared" ref="D133:D196" si="8">(C133)/($C$2+C133)</f>
+        <v>0.50132012210794263</v>
       </c>
       <c r="E133">
-        <f>$D$1*C133/($C$2+C133)/($C$2+C133)</f>
-        <v>8.0286933459435315E-5</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>2.7224810217532829E-3</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="7"/>
+        <v>5.4306238702445039E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="2">
         <v>75</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C197" si="2">C$4*EXP(C$3*((1/($B134+273.15))-1/(298.15)))</f>
-        <v>689.70205390553383</v>
+        <f t="shared" ref="C134:C197" si="9">C$4*EXP(C$3*((1/($B134+273.15))-1/(273.15+100)))</f>
+        <v>976.19564068252976</v>
       </c>
       <c r="D134">
-        <f>(C134)/($C$2+C134)</f>
-        <v>0.12796663841663675</v>
+        <f t="shared" si="8"/>
+        <v>0.49397722603283123</v>
       </c>
       <c r="E134">
-        <f>$D$1*C134/($C$2+C134)/($C$2+C134)</f>
-        <v>7.8351252546306847E-5</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E134:E197" si="10">$D$1*$D$1*C134/($C$2+C134)/($C$2+C134)</f>
+        <v>2.7221049782498326E-3</v>
+      </c>
+      <c r="F134">
+        <f t="shared" ref="F134:F197" si="11">$D$1*$D$1/($C$2+C134)</f>
+        <v>5.5105880085024673E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="2">
         <v>76</v>
       </c>
       <c r="C135">
-        <f t="shared" si="2"/>
-        <v>667.46358567345749</v>
+        <f t="shared" si="9"/>
+        <v>948.09860349586074</v>
       </c>
       <c r="D135">
-        <f>(C135)/($C$2+C135)</f>
-        <v>0.12435363091330792</v>
+        <f t="shared" si="8"/>
+        <v>0.4866789606000943</v>
       </c>
       <c r="E135">
-        <f>$D$1*C135/($C$2+C135)/($C$2+C135)</f>
-        <v>7.6454544211393516E-5</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.7205675685123437E-3</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="11"/>
+        <v>5.5900661190649726E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="2">
         <v>77</v>
       </c>
       <c r="C136">
-        <f t="shared" si="2"/>
-        <v>646.06310015722056</v>
+        <f t="shared" si="9"/>
+        <v>920.96387472546371</v>
       </c>
       <c r="D136">
-        <f>(C136)/($C$2+C136)</f>
-        <v>0.12084838657033822</v>
+        <f t="shared" si="8"/>
+        <v>0.47942800322420642</v>
       </c>
       <c r="E136">
-        <f>$D$1*C136/($C$2+C136)/($C$2+C136)</f>
-        <v>7.4596889002374092E-5</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.7178912752108719E-3</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="11"/>
+        <v>5.6690290448883915E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="2">
         <v>78</v>
       </c>
       <c r="C137">
-        <f t="shared" si="2"/>
-        <v>625.46484444600935</v>
+        <f t="shared" si="9"/>
+        <v>894.75371385098936</v>
       </c>
       <c r="D137">
-        <f>(C137)/($C$2+C137)</f>
-        <v>0.11744793416452916</v>
+        <f t="shared" si="8"/>
+        <v>0.47222692179473214</v>
       </c>
       <c r="E137">
-        <f>$D$1*C137/($C$2+C137)/($C$2+C137)</f>
-        <v>7.2778282096286136E-5</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.7141000652230744E-3</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="11"/>
+        <v>5.7474488216553675E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="2">
         <v>79</v>
       </c>
       <c r="C138">
-        <f t="shared" si="2"/>
-        <v>605.63475854017122</v>
+        <f t="shared" si="9"/>
+        <v>869.43203622000362</v>
       </c>
       <c r="D138">
-        <f>(C138)/($C$2+C138)</f>
-        <v>0.11414934990866385</v>
+        <f t="shared" si="8"/>
+        <v>0.46507817314289607</v>
       </c>
       <c r="E138">
-        <f>$D$1*C138/($C$2+C138)/($C$2+C138)</f>
-        <v>7.0998640472235712E-5</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.7092192748376003E-3</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="11"/>
+        <v>5.8252986944738608E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="2">
         <v>80</v>
       </c>
       <c r="C139">
-        <f t="shared" si="2"/>
-        <v>586.54038763466565</v>
+        <f t="shared" si="9"/>
+        <v>844.9643330614042</v>
       </c>
       <c r="D139">
-        <f>(C139)/($C$2+C139)</f>
-        <v>0.11094976007496254</v>
+        <f t="shared" si="8"/>
+        <v>0.4579841018711347</v>
       </c>
       <c r="E139">
-        <f>$D$1*C139/($C$2+C139)/($C$2+C139)</f>
-        <v>6.9257809720658217E-5</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.7032754942751861E-3</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="11"/>
+        <v>5.9025531306233425E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="2">
         <v>81</v>
       </c>
       <c r="C140">
-        <f t="shared" si="2"/>
-        <v>568.1507993237102</v>
+        <f t="shared" si="9"/>
+        <v>821.31759570282156</v>
       </c>
       <c r="D140">
-        <f>(C140)/($C$2+C140)</f>
-        <v>0.10784634323615899</v>
+        <f t="shared" si="8"/>
+        <v>0.45094693953466491</v>
       </c>
       <c r="E140">
-        <f>$D$1*C140/($C$2+C140)/($C$2+C140)</f>
-        <v>6.7555570490695103E-5</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.6962964521503371E-3</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="11"/>
+        <v>5.9791878284674981E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="2">
         <v>82</v>
       </c>
       <c r="C141">
-        <f t="shared" si="2"/>
-        <v>550.43650543010301</v>
+        <f t="shared" si="9"/>
+        <v>798.46024375374509</v>
       </c>
       <c r="D141">
-        <f>(C141)/($C$2+C141)</f>
-        <v>0.10483633215273261</v>
+        <f t="shared" si="8"/>
+        <v>0.44396880416283174</v>
       </c>
       <c r="E141">
-        <f>$D$1*C141/($C$2+C141)/($C$2+C141)</f>
-        <v>6.589164457968765E-5</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.6883109004633894E-3</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="11"/>
+        <v>6.0551797226667614E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="2">
         <v>83</v>
       </c>
       <c r="C142">
-        <f t="shared" si="2"/>
-        <v>533.36938818180124</v>
+        <f t="shared" si="9"/>
+        <v>776.3620570306141</v>
       </c>
       <c r="D142">
-        <f>(C142)/($C$2+C142)</f>
-        <v>0.101917015333616</v>
+        <f t="shared" si="8"/>
+        <v>0.4370517001068967</v>
       </c>
       <c r="E142">
-        <f>$D$1*C142/($C$2+C142)/($C$2+C142)</f>
-        <v>6.4265700670859869E-5</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.6793485006767846E-3</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="11"/>
+        <v>6.1305069858358938E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="2">
         <v>84</v>
       </c>
       <c r="C143">
-        <f t="shared" si="2"/>
-        <v>516.92263047606366</v>
+        <f t="shared" si="9"/>
+        <v>754.99411101360135</v>
       </c>
       <c r="D143">
-        <f>(C143)/($C$2+C143)</f>
-        <v>9.9085738296427944E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.43019751819996283</v>
       </c>
       <c r="E143">
-        <f>$D$1*C143/($C$2+C143)/($C$2+C143)</f>
-        <v>6.2677359726987899E-5</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.6694397113913087E-3</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="11"/>
+        <v>6.2051490268024041E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="2">
         <v>85</v>
       </c>
       <c r="C144">
-        <f t="shared" si="2"/>
-        <v>501.0706499880302</v>
+        <f t="shared" si="9"/>
+        <v>734.32871563747915</v>
       </c>
       <c r="D144">
-        <f>(C144)/($C$2+C144)</f>
-        <v>9.6339904551995162E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.42340803621392237</v>
       </c>
       <c r="E144">
-        <f>$D$1*C144/($C$2+C144)/($C$2+C144)</f>
-        <v>6.1126200049275563E-5</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.6586156780981406E-3</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="11"/>
+        <v>6.2790864856303854E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="2">
         <v>86</v>
       </c>
       <c r="C145">
-        <f t="shared" si="2"/>
-        <v>485.78903689603737</v>
+        <f t="shared" si="9"/>
+        <v>714.33935723078673</v>
       </c>
       <c r="D145">
-        <f>(C145)/($C$2+C145)</f>
-        <v>9.3676976336624612E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.41668491959764375</v>
       </c>
       <c r="E145">
-        <f>$D$1*C145/($C$2+C145)/($C$2+C145)</f>
-        <v>5.961176201180253E-5</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.6469081254415069E-3</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="11"/>
+        <v>6.3523012255816578E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="2">
         <v>87</v>
       </c>
       <c r="C146">
-        <f t="shared" si="2"/>
-        <v>471.05449501036532</v>
+        <f t="shared" si="9"/>
+        <v>695.00064342861708</v>
       </c>
       <c r="D146">
-        <f>(C146)/($C$2+C146)</f>
-        <v>9.1094475114291196E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.41002972248009428</v>
       </c>
       <c r="E146">
-        <f>$D$1*C146/($C$2+C146)/($C$2+C146)</f>
-        <v>5.8133552482811027E-5</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.6343492523849738E-3</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="11"/>
+        <v>6.4247763221917734E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="2">
         <v>88</v>
       </c>
       <c r="C147">
-        <f t="shared" si="2"/>
-        <v>456.84478610553612</v>
+        <f t="shared" si="9"/>
+        <v>676.28825089470524</v>
       </c>
       <c r="D147">
-        <f>(C147)/($C$2+C147)</f>
-        <v>8.8589981869620429E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.40344388892169464</v>
       </c>
       <c r="E147">
-        <f>$D$1*C147/($C$2+C147)/($C$2+C147)</f>
-        <v>5.6691048944780944E-5</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.6209716306322957E-3</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="11"/>
+        <v>6.4964960496427448E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="2">
         <v>89</v>
       </c>
       <c r="C148">
-        <f t="shared" si="2"/>
-        <v>443.13867726880534</v>
+        <f t="shared" si="9"/>
+        <v>658.17887569822562</v>
       </c>
       <c r="D148">
-        <f>(C148)/($C$2+C148)</f>
-        <v>8.6161137211281297E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.39692875439694636</v>
       </c>
       <c r="E148">
-        <f>$D$1*C148/($C$2+C148)/($C$2+C148)</f>
-        <v>5.5283703325732363E-5</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.6068081066119029E-3</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="11"/>
+        <v>6.5674458646172544E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="2">
         <v>90</v>
       </c>
       <c r="C149">
-        <f t="shared" si="2"/>
-        <v>429.91589108921198</v>
+        <f t="shared" si="9"/>
+        <v>640.65018619984187</v>
       </c>
       <c r="D149">
-        <f>(C149)/($C$2+C149)</f>
-        <v>8.3805641304175435E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.39048554749123499</v>
       </c>
       <c r="E149">
-        <f>$D$1*C149/($C$2+C149)/($C$2+C149)</f>
-        <v>5.3910945554520279E-5</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.591891707292673E-3</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="11"/>
+        <v>6.6376123878204504E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="2">
         <v>91</v>
       </c>
       <c r="C150">
-        <f t="shared" si="2"/>
-        <v>417.15705852242996</v>
+        <f t="shared" si="9"/>
+        <v>623.68077831004859</v>
       </c>
       <c r="D150">
-        <f>(C150)/($C$2+C150)</f>
-        <v>8.1521253647603167E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.38411539179467591</v>
       </c>
       <c r="E150">
-        <f>$D$1*C150/($C$2+C150)/($C$2+C150)</f>
-        <v>5.2572186853058902E-5</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.5762555500581626E-3</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="11"/>
+        <v>6.7069833833559795E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="2">
         <v>92</v>
       </c>
       <c r="C151">
-        <f t="shared" si="2"/>
-        <v>404.84367427690637</v>
+        <f t="shared" si="9"/>
+        <v>607.25013299088971</v>
       </c>
       <c r="D151">
-        <f>(C151)/($C$2+C151)</f>
-        <v>7.9305792715435475E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.3778193079759613</v>
       </c>
       <c r="E151">
-        <f>$D$1*C151/($C$2+C151)/($C$2+C151)</f>
-        <v>5.1266822778467895E-5</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.5599327568271791E-3</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="11"/>
+        <v>6.775547736141781E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="2">
         <v>93</v>
       </c>
       <c r="C152">
-        <f t="shared" si="2"/>
-        <v>392.95805457627318</v>
+        <f t="shared" si="9"/>
+        <v>591.33857587962291</v>
       </c>
       <c r="D152">
-        <f>(C152)/($C$2+C152)</f>
-        <v>7.7157135473201285E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.37159821601933868</v>
       </c>
       <c r="E152">
-        <f>$D$1*C152/($C$2+C152)/($C$2+C152)</f>
-        <v>4.9994236028073499E-5</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.5429563725706547E-3</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="11"/>
+        <v>6.8432954275494005E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="2">
         <v>94</v>
       </c>
       <c r="C153">
-        <f t="shared" si="2"/>
-        <v>381.48329716194019</v>
+        <f t="shared" si="9"/>
+        <v>575.92723891995286</v>
       </c>
       <c r="D153">
-        <f>(C153)/($C$2+C153)</f>
-        <v>7.5073216785933844E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.36545293760812164</v>
       </c>
       <c r="E153">
-        <f>$D$1*C153/($C$2+C153)/($C$2+C153)</f>
-        <v>4.875379902005147E-5</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.5253592883386872E-3</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="11"/>
+        <v>6.9102175094475559E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="2">
         <v>95</v>
       </c>
       <c r="C154">
-        <f t="shared" si="2"/>
-        <v>370.40324340808894</v>
+        <f t="shared" si="9"/>
+        <v>560.99802389305057</v>
       </c>
       <c r="D154">
-        <f>(C154)/($C$2+C154)</f>
-        <v>7.3052028729596888E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.35938419863847726</v>
       </c>
       <c r="E154">
-        <f>$D$1*C154/($C$2+C154)/($C$2+C154)</f>
-        <v>4.7544876262273873E-5</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.5071741688772035E-3</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="11"/>
+        <v>6.9763060768269812E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="2">
         <v>96</v>
       </c>
       <c r="C155">
-        <f t="shared" si="2"/>
-        <v>359.70244242908433</v>
+        <f t="shared" si="9"/>
+        <v>546.53356774679014</v>
       </c>
       <c r="D155">
-        <f>(C155)/($C$2+C155)</f>
-        <v>7.1091619817942653E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.3533926318476604</v>
       </c>
       <c r="E155">
-        <f>$D$1*C155/($C$2+C155)/($C$2+C155)</f>
-        <v>4.6366826521636678E-5</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.4884333848815086E-3</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="11"/>
+        <v>7.0415542391789781E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="2">
         <v>97</v>
       </c>
       <c r="C156">
-        <f t="shared" si="2"/>
-        <v>349.36611706659738</v>
+        <f t="shared" si="9"/>
+        <v>532.51720962745446</v>
       </c>
       <c r="D156">
-        <f>(C156)/($C$2+C156)</f>
-        <v>6.9190094155731338E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.34747877954134432</v>
       </c>
       <c r="E156">
-        <f>$D$1*C156/($C$2+C156)/($C$2+C156)</f>
-        <v>4.5219004805806979E-5</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.469168949903745E-3</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="11"/>
+        <v>7.1059560907947589E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="2">
         <v>98</v>
       </c>
       <c r="C157">
-        <f t="shared" si="2"/>
-        <v>339.38013165052683</v>
+        <f t="shared" si="9"/>
+        <v>518.93295952360188</v>
       </c>
       <c r="D157">
-        <f>(C157)/($C$2+C157)</f>
-        <v>6.7345610528366934E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.34164309640522911</v>
       </c>
       <c r="E157">
-        <f>$D$1*C157/($C$2+C157)/($C$2+C157)</f>
-        <v>4.4100764168949759E-5</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.4494124619034146E-3</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="11"/>
+        <v>7.169506680147055E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="2">
         <v>99</v>
       </c>
       <c r="C158">
-        <f t="shared" si="2"/>
-        <v>329.73096143421446</v>
+        <f t="shared" si="9"/>
+        <v>505.76546843695968</v>
       </c>
       <c r="D158">
-        <f>(C158)/($C$2+C158)</f>
-        <v>6.5556381437187755E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.33588595238670399</v>
       </c>
       <c r="E158">
-        <f>$D$1*C158/($C$2+C158)/($C$2+C158)</f>
-        <v>4.3011457352588078E-5</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.4291950494044305E-3</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="11"/>
+        <v>7.2322019785087928E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="2">
         <v>100</v>
       </c>
       <c r="C159">
-        <f t="shared" si="2"/>
-        <v>320.40566361038441</v>
+        <f t="shared" si="9"/>
+        <v>493</v>
       </c>
       <c r="D159">
-        <f>(C159)/($C$2+C159)</f>
-        <v>6.3820672088870059E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.3302076356329538</v>
       </c>
       <c r="E159">
-        <f>$D$1*C159/($C$2+C159)/($C$2+C159)</f>
-        <v>4.1950438272315625E-5</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.4085473221988388E-3</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="11"/>
+        <v>7.2940388479571325E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="2">
         <v>101</v>
       </c>
       <c r="C160">
-        <f t="shared" si="2"/>
-        <v>311.39184981983578</v>
+        <f t="shared" si="9"/>
+        <v>480.6224034643912</v>
       </c>
       <c r="D160">
-        <f>(C160)/($C$2+C160)</f>
-        <v>6.2136799346678637E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.32460835547255051</v>
       </c>
       <c r="E160">
-        <f>$D$1*C160/($C$2+C160)/($C$2+C160)</f>
-        <v>4.091706336063329E-5</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.3874993265162289E-3</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="11"/>
+        <v>7.3550150089039239E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="2">
         <v>102</v>
       </c>
       <c r="C161">
-        <f t="shared" si="2"/>
-        <v>302.67766007015439</v>
+        <f t="shared" si="9"/>
+        <v>468.61908798878943</v>
       </c>
       <c r="D161">
-        <f>(C161)/($C$2+C161)</f>
-        <v>6.0503130650618381E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.31908824542825676</v>
       </c>
       <c r="E161">
-        <f>$D$1*C161/($C$2+C161)/($C$2+C161)</f>
-        <v>3.9910692775724579E-5</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.3660805045591514E-3</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="11"/>
+        <v>7.415129007286283E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="2">
         <v>103</v>
       </c>
       <c r="C162">
-        <f t="shared" si="2"/>
-        <v>294.2517379866041</v>
+        <f t="shared" si="9"/>
+        <v>456.97699815843049</v>
       </c>
       <c r="D162">
-        <f>(C162)/($C$2+C162)</f>
-        <v>5.8918082912902889E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.31364736624945622</v>
       </c>
       <c r="E162">
-        <f>$D$1*C162/($C$2+C162)/($C$2+C162)</f>
-        <v>3.8930691485520199E-5</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.3443196582882265E-3</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="11"/>
+        <v>7.4743801815434219E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="2">
         <v>104</v>
       </c>
       <c r="C163">
-        <f t="shared" si="2"/>
-        <v>286.10320732194492</v>
+        <f t="shared" si="9"/>
+        <v>445.68359067273303</v>
       </c>
       <c r="D163">
-        <f>(C163)/($C$2+C163)</f>
-        <v>5.7380121394561355E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.30828570895332569</v>
       </c>
       <c r="E163">
-        <f>$D$1*C163/($C$2+C163)/($C$2+C163)</f>
-        <v>3.7976430235938784E-5</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.3222449173262495E-3</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="11"/>
+        <v>7.5327686294982821E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="2">
         <v>105</v>
       </c>
       <c r="C164">
-        <f t="shared" si="2"/>
-        <v>278.22164965625126</v>
+        <f t="shared" si="9"/>
+        <v>434.7268121407007</v>
       </c>
       <c r="D164">
-        <f>(C164)/($C$2+C164)</f>
-        <v>5.5887758568456389E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.30300319786458968</v>
       </c>
       <c r="E164">
-        <f>$D$1*C164/($C$2+C164)/($C$2+C164)</f>
-        <v>3.7047286411733197E-5</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.2998837108383148E-3</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="11"/>
+        <v>7.5902951752546176E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="2">
         <v>106</v>
       </c>
       <c r="C165">
-        <f t="shared" si="2"/>
-        <v>270.59708322181166</v>
+        <f t="shared" si="9"/>
+        <v>424.09507792720154</v>
       </c>
       <c r="D165">
-        <f>(C165)/($C$2+C165)</f>
-        <v>5.4439552973466455E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.29779969364438802</v>
       </c>
       <c r="E165">
-        <f>$D$1*C165/($C$2+C165)/($C$2+C165)</f>
-        <v>3.6142644797915203E-5</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.2772627432345962E-3</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="11"/>
+        <v>7.6469613362126132E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="2">
         <v>107</v>
       </c>
       <c r="C166">
-        <f t="shared" si="2"/>
-        <v>263.21994279200067</v>
+        <f t="shared" si="9"/>
+        <v>413.77725199637166</v>
       </c>
       <c r="D166">
-        <f>(C166)/($C$2+C166)</f>
-        <v>5.3034108064114807E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.29267499629951155</v>
       </c>
       <c r="E166">
-        <f>$D$1*C166/($C$2+C166)/($C$2+C166)</f>
-        <v>3.526189824929008E-5</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.2544079735340515E-3</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="11"/>
+        <v>7.7027692902983183E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="2">
         <v>108</v>
       </c>
       <c r="C167">
-        <f t="shared" si="2"/>
-        <v>256.0810605765451</v>
+        <f t="shared" si="9"/>
+        <v>403.76262770131711</v>
       </c>
       <c r="D167">
-        <f>(C167)/($C$2+C167)</f>
-        <v>5.1670071059482417E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.28762884816394108</v>
       </c>
       <c r="E167">
-        <f>$D$1*C167/($C$2+C167)/($C$2+C167)</f>
-        <v>3.4404448275197552E-5</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.2313445982206203E-3</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="11"/>
+        <v>7.7577218434946808E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="2">
         <v>109</v>
       </c>
       <c r="C168">
-        <f t="shared" si="2"/>
-        <v>249.17164806895263</v>
+        <f t="shared" si="9"/>
+        <v>394.04090947208698</v>
       </c>
       <c r="D168">
-        <f>(C168)/($C$2+C168)</f>
-        <v>5.0346131794837504E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.28266093684532356</v>
       </c>
       <c r="E168">
-        <f>$D$1*C168/($C$2+C168)/($C$2+C168)</f>
-        <v>3.3569705546136878E-5</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.2080970374185483E-3</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="11"/>
+        <v>7.8118223977544261E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="2">
         <v>110</v>
       </c>
       <c r="C169">
-        <f t="shared" si="2"/>
-        <v>242.48327879498549</v>
+        <f t="shared" si="9"/>
+        <v>384.60219535648866</v>
       </c>
       <c r="D169">
-        <f>(C169)/($C$2+C169)</f>
-        <v>4.9061021579036024E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.27777089812967287</v>
       </c>
       <c r="E169">
-        <f>$D$1*C169/($C$2+C169)/($C$2+C169)</f>
-        <v>3.275709032854667E-5</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.1846889242099756E-3</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="11"/>
+        <v>7.865074919367861E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="2">
         <v>111</v>
       </c>
       <c r="C170">
-        <f t="shared" si="2"/>
-        <v>236.00787191400096</v>
+        <f t="shared" si="9"/>
+        <v>375.43696037079212</v>
       </c>
       <c r="D170">
-        <f>(C170)/($C$2+C170)</f>
-        <v>4.7813512060402338E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.27295831883824129</v>
       </c>
       <c r="E170">
-        <f>$D$1*C170/($C$2+C170)/($C$2+C170)</f>
-        <v>3.1966032853619549E-5</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.1611430969159882E-3</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="11"/>
+        <v>7.9174839078515521E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="2">
         <v>112</v>
       </c>
       <c r="C171">
-        <f t="shared" si="2"/>
-        <v>229.73767662774017</v>
+        <f t="shared" si="9"/>
+        <v>366.53604061969207</v>
       </c>
       <c r="D171">
-        <f>(C171)/($C$2+C171)</f>
-        <v>4.6602414103481385E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.2682227396311308</v>
       </c>
       <c r="E171">
-        <f>$D$1*C171/($C$2+C171)/($C$2+C171)</f>
-        <v>3.11959736256574E-5</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.137481594161566E-3</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="11"/>
+        <v>7.9690543654169846E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="2">
         <v>113</v>
       </c>
       <c r="C172">
-        <f t="shared" si="2"/>
-        <v>223.66525735372443</v>
+        <f t="shared" si="9"/>
+        <v>357.8906181470764</v>
       </c>
       <c r="D172">
-        <f>(C172)/($C$2+C172)</f>
-        <v>4.5426576678759767E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.26356365775281643</v>
       </c>
       <c r="E172">
-        <f>$D$1*C172/($C$2+C172)/($C$2+C172)</f>
-        <v>3.0446363675112363E-5</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.1137256525453744E-3</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="11"/>
+        <v>8.019791767071828E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="2">
         <v>114</v>
       </c>
       <c r="C173">
-        <f t="shared" si="2"/>
-        <v>217.78347962285676</v>
+        <f t="shared" si="9"/>
+        <v>349.49220648121849</v>
       </c>
       <c r="D173">
-        <f>(C173)/($C$2+C173)</f>
-        <v>4.4284885767186824E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.25898052971533225</v>
       </c>
       <c r="E173">
-        <f>$D$1*C173/($C$2+C173)/($C$2+C173)</f>
-        <v>2.9716664761117943E-5</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.0898957067368726E-3</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="11"/>
+        <v>8.0697020314000299E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="2">
         <v>115</v>
       </c>
       <c r="C174">
-        <f t="shared" si="2"/>
-        <v>212.08549666311237</v>
+        <f t="shared" si="9"/>
+        <v>341.33263683996057</v>
       </c>
       <c r="D174">
-        <f>(C174)/($C$2+C174)</f>
-        <v>4.3176263281082282E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.25447277391542833</v>
       </c>
       <c r="E174">
-        <f>$D$1*C174/($C$2+C174)/($C$2+C174)</f>
-        <v>2.9006349527988153E-5</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.0660113918257381E-3</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="11"/>
+        <v>8.1187914920609859E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="2">
         <v>116</v>
       </c>
       <c r="C175">
-        <f t="shared" si="2"/>
-        <v>206.56473663333816</v>
+        <f t="shared" si="9"/>
+        <v>333.40404496327028</v>
       </c>
       <c r="D175">
-        <f>(C175)/($C$2+C175)</f>
-        <v>4.2099666002791497E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.25003977318251963</v>
       </c>
       <c r="E175">
-        <f>$D$1*C175/($C$2+C175)/($C$2+C175)</f>
-        <v>2.8314901619852804E-5</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.0420915477518623E-3</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="11"/>
+        <v>8.1670668700423599E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="2">
         <v>117</v>
       </c>
       <c r="C176">
-        <f t="shared" si="2"/>
-        <v>201.21489047321359</v>
+        <f t="shared" si="9"/>
+        <v>325.69885854230688</v>
       </c>
       <c r="D176">
-        <f>(C176)/($C$2+C176)</f>
-        <v>4.1054084542248306E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.24568087725475921</v>
       </c>
       <c r="E176">
-        <f>$D$1*C176/($C$2+C176)/($C$2+C176)</f>
-        <v>2.7641815757304797E-5</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>2.0181542256483324E-3</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="11"/>
+        <v>8.2145352466956711E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="2">
         <v>118</v>
       </c>
       <c r="C177">
-        <f t="shared" si="2"/>
-        <v>196.02990033730833</v>
+        <f t="shared" si="9"/>
+        <v>318.20978521574068</v>
       </c>
       <c r="D177">
-        <f>(C177)/($C$2+C177)</f>
-        <v>4.003854231441744E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.24139540518102121</v>
       </c>
       <c r="E177">
-        <f>$D$1*C177/($C$2+C177)/($C$2+C177)</f>
-        <v>2.6986597779657096E-5</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.9942166959343931E-3</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="11"/>
+        <v>8.2612040375786774E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="2">
         <v>119</v>
       </c>
       <c r="C178">
-        <f t="shared" si="2"/>
-        <v>191.00394858297358</v>
+        <f t="shared" si="9"/>
+        <v>310.92980110563155</v>
       </c>
       <c r="D178">
-        <f>(C178)/($C$2+C178)</f>
-        <v>3.9052094537423428E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.23718264764703259</v>
       </c>
       <c r="E178">
-        <f>$D$1*C178/($C$2+C178)/($C$2+C178)</f>
-        <v>2.6348764656146763E-5</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.9702954580006981E-3</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="11"/>
+        <v>8.307080967123813E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="2">
         <v>120</v>
       </c>
       <c r="C179">
-        <f t="shared" si="2"/>
-        <v>186.13144728346538</v>
+        <f t="shared" si="9"/>
+        <v>303.85213986660415</v>
       </c>
       <c r="D179">
-        <f>(C179)/($C$2+C179)</f>
-        <v>3.8093827252017251E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.23304186922429024</v>
       </c>
       <c r="E179">
-        <f>$D$1*C179/($C$2+C179)/($C$2+C179)</f>
-        <v>2.572784446917561E-5</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.9464062513347281E-3</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="11"/>
+        <v>8.3521740441474777E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="2">
         <v>121</v>
       </c>
       <c r="C180">
-        <f t="shared" si="2"/>
-        <v>181.40702823929547</v>
+        <f t="shared" si="9"/>
+        <v>296.97028222344949</v>
       </c>
       <c r="D180">
-        <f>(C180)/($C$2+C180)</f>
-        <v>3.7162856362897539E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.22897231054079445</v>
       </c>
       <c r="E180">
-        <f>$D$1*C180/($C$2+C180)/($C$2+C180)</f>
-        <v>2.5123376372446592E-5</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.9225640679403444E-3</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="11"/>
+        <v>8.3964915382107475E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="2">
         <v>122</v>
       </c>
       <c r="C181">
-        <f t="shared" si="2"/>
-        <v>176.82553346227562</v>
+        <f t="shared" si="9"/>
+        <v>290.27794597355688</v>
       </c>
       <c r="D181">
-        <f>(C181)/($C$2+C181)</f>
-        <v>3.6258326702275794E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.22497319037297248</v>
       </c>
       <c r="E181">
-        <f>$D$1*C181/($C$2+C181)/($C$2+C181)</f>
-        <v>2.4534910526635859E-5</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.8987831659116644E-3</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="11"/>
+        <v>8.4400419568383296E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="2">
         <v>123</v>
       </c>
       <c r="C182">
-        <f t="shared" si="2"/>
-        <v>172.38200610813894</v>
+        <f t="shared" si="9"/>
+        <v>283.76907643182665</v>
       </c>
       <c r="D182">
-        <f>(C182)/($C$2+C182)</f>
-        <v>3.5379411115966805E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.22104370765850576</v>
       </c>
       <c r="E182">
-        <f>$D$1*C182/($C$2+C182)/($C$2+C182)</f>
-        <v>2.3962008015038061E-5</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.875077084028015E-3</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="11"/>
+        <v>8.482834023598871E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="2">
         <v>124</v>
       </c>
       <c r="C183">
-        <f t="shared" si="2"/>
-        <v>168.07168183492436</v>
+        <f t="shared" si="9"/>
+        <v>277.43783729684782</v>
       </c>
       <c r="D183">
-        <f>(C183)/($C$2+C183)</f>
-        <v>3.4525309572182188E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.21718304343006359</v>
       </c>
       <c r="E183">
-        <f>$D$1*C183/($C$2+C183)/($C$2+C183)</f>
-        <v>2.3404240741429716E-5</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.8514586572432883E-3</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="11"/>
+        <v>8.5248766570466053E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="2">
         <v>125</v>
       </c>
       <c r="C184">
-        <f t="shared" si="2"/>
-        <v>163.88998056556184</v>
+        <f t="shared" si="9"/>
+        <v>271.278601918231</v>
       </c>
       <c r="D184">
-        <f>(C184)/($C$2+C184)</f>
-        <v>3.369524829311725E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.21339036267022743</v>
       </c>
       <c r="E184">
-        <f>$D$1*C184/($C$2+C184)/($C$2+C184)</f>
-        <v>2.2861191312217448E-5</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.8279400329497917E-3</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="11"/>
+        <v>8.5661789505212214E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="2">
         <v>126</v>
       </c>
       <c r="C185">
-        <f t="shared" si="2"/>
-        <v>159.83249863426204</v>
+        <f t="shared" si="9"/>
+        <v>265.28594494601322</v>
       </c>
       <c r="D185">
-        <f>(C185)/($C$2+C185)</f>
-        <v>3.2888478909340824E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.20966481608813917</v>
       </c>
       <c r="E185">
-        <f>$D$1*C185/($C$2+C185)/($C$2+C185)</f>
-        <v>2.2332452904770889E-5</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.8045326879034098E-3</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="11"/>
+        <v>8.6067501528001647E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="2">
         <v>127</v>
       </c>
       <c r="C186">
-        <f t="shared" si="2"/>
-        <v>155.89500129741825</v>
+        <f t="shared" si="9"/>
+        <v>259.45463434403058</v>
       </c>
       <c r="D186">
-        <f>(C186)/($C$2+C186)</f>
-        <v>3.2104277636926984E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.2060055418186332</v>
       </c>
       <c r="E186">
-        <f>$D$1*C186/($C$2+C186)/($C$2+C186)</f>
-        <v>2.1817629123684193E-5</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.7812474457036388E-3</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="11"/>
+        <v>8.6465996495950839E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="2">
         <v>128</v>
       </c>
       <c r="C187">
-        <f t="shared" si="2"/>
-        <v>152.07341559076221</v>
+        <f t="shared" si="9"/>
+        <v>253.77962375006692</v>
       </c>
       <c r="D187">
-        <f>(C187)/($C$2+C187)</f>
-        <v>3.1341944477203787E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.20241166704481095</v>
       </c>
       <c r="E187">
-        <f>$D$1*C187/($C$2+C187)/($C$2+C187)</f>
-        <v>2.1316333846564357E-5</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.758094494728682E-3</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="11"/>
+        <v>8.6857369458820076E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="2">
         <v>129</v>
       </c>
       <c r="C188">
-        <f t="shared" si="2"/>
-        <v>148.36382351550219</v>
+        <f t="shared" si="9"/>
+        <v>248.2560451664726</v>
       </c>
       <c r="D188">
-        <f>(C188)/($C$2+C188)</f>
-        <v>3.0600802438940113E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.19888230954520564</v>
       </c>
       <c r="E188">
-        <f>$D$1*C188/($C$2+C188)/($C$2+C188)</f>
-        <v>2.0828191060810451E-5</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.7350834064324082E-3</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="11"/>
+        <v>8.7241716490527102E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="2">
         <v>130</v>
       </c>
       <c r="C189">
-        <f t="shared" si="2"/>
-        <v>144.76245553709032</v>
+        <f t="shared" si="9"/>
+        <v>242.87920196576405</v>
       </c>
       <c r="D189">
-        <f>(C189)/($C$2+C189)</f>
-        <v>2.9880196782742355E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.19541657916684194</v>
       </c>
       <c r="E189">
-        <f>$D$1*C189/($C$2+C189)/($C$2+C189)</f>
-        <v>2.0352834692721473E-5</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.7122231539163921E-3</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="11"/>
+        <v>8.7619134528730911E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="2">
         <v>131</v>
       </c>
       <c r="C190">
-        <f t="shared" si="2"/>
-        <v>141.26568438113421</v>
+        <f t="shared" si="9"/>
+        <v>237.64456219648997</v>
       </c>
       <c r="D190">
-        <f>(C190)/($C$2+C190)</f>
-        <v>2.9179494287389515E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.19201357922563331</v>
       </c>
       <c r="E190">
-        <f>$D$1*C190/($C$2+C190)/($C$2+C190)</f>
-        <v>1.9889908430153542E-5</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.6895221306964968E-3</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="11"/>
+        <v>8.7989721222328527E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="2">
         <v>132</v>
       </c>
       <c r="C191">
-        <f t="shared" si="2"/>
-        <v>137.87001911179865</v>
+        <f t="shared" si="9"/>
+        <v>232.54775217540549</v>
       </c>
       <c r="D191">
-        <f>(C191)/($C$2+C191)</f>
-        <v>2.8498082537800527E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.18867240783569358</v>
       </c>
       <c r="E191">
-        <f>$D$1*C191/($C$2+C191)/($C$2+C191)</f>
-        <v>1.9439065539840104E-5</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.6669881695896382E-3</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="11"/>
+        <v>8.8353574786692955E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="2">
         <v>133</v>
       </c>
       <c r="C192">
-        <f t="shared" si="2"/>
-        <v>134.57209947880668</v>
+        <f t="shared" si="9"/>
+        <v>227.5845503526721</v>
       </c>
       <c r="D192">
-        <f>(C192)/($C$2+C192)</f>
-        <v>2.7835369234293614E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.18539215916923152</v>
       </c>
       <c r="E192">
-        <f>$D$1*C192/($C$2+C192)/($C$2+C192)</f>
-        <v>1.8999968680386743E-5</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.644628561652162E-3</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="11"/>
+        <v>8.8710793866470673E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="2">
         <v>134</v>
       </c>
       <c r="C193">
-        <f t="shared" si="2"/>
-        <v>131.36869051988936</v>
+        <f t="shared" si="9"/>
+        <v>222.75088143748152</v>
       </c>
       <c r="D193">
-        <f>(C193)/($C$2+C193)</f>
-        <v>2.7190781522772413E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.18217192464879908</v>
       </c>
       <c r="E193">
-        <f>$D$1*C193/($C$2+C193)/($C$2+C193)</f>
-        <v>1.8572289711860805E-5</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.622450075107024E-3</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="11"/>
+        <v>8.906147740574577E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="2">
         <v>135</v>
       </c>
       <c r="C194">
-        <f t="shared" si="2"/>
-        <v>128.25667740622083</v>
+        <f t="shared" si="9"/>
+        <v>218.04281077211687</v>
       </c>
       <c r="D194">
-        <f>(C194)/($C$2+C194)</f>
-        <v>2.6563765345449981E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.1790107940737318</v>
       </c>
       <c r="E194">
-        <f>$D$1*C194/($C$2+C194)/($C$2+C194)</f>
-        <v>1.8155709502808957E-5</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.600458974202391E-3</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="11"/>
+        <v>8.9405724525370607E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="2">
         <v>136</v>
       </c>
       <c r="C195">
-        <f t="shared" si="2"/>
-        <v>125.23306051902476</v>
+        <f t="shared" si="9"/>
+        <v>213.45653894306079</v>
       </c>
       <c r="D195">
-        <f>(C195)/($C$2+C195)</f>
-        <v>2.5953784811702775E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.17590785668268324</v>
       </c>
       <c r="E195">
-        <f>$D$1*C195/($C$2+C195)/($C$2+C195)</f>
-        <v>1.7749917735456805E-5</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.5786610379494672E-3</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="11"/>
+        <v>8.9743634407255784E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="2">
         <v>137</v>
       </c>
       <c r="C196">
-        <f t="shared" si="2"/>
-        <v>122.29495074615711</v>
+        <f t="shared" si="9"/>
+        <v>208.98839661832093</v>
       </c>
       <c r="D196">
-        <f>(C196)/($C$2+C196)</f>
-        <v>2.5360321588631638E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.17286220215420217</v>
       </c>
       <c r="E196">
-        <f>$D$1*C196/($C$2+C196)/($C$2+C196)</f>
-        <v>1.735461270977113E-5</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.5570615786923551E-3</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="11"/>
+        <v>9.0075306185407374E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="2">
         <v>138</v>
       </c>
       <c r="C197">
-        <f t="shared" si="2"/>
-        <v>119.43956498805248</v>
+        <f t="shared" si="9"/>
+        <v>204.63483960068027</v>
       </c>
       <c r="D197">
-        <f>(C197)/($C$2+C197)</f>
-        <v>2.4782874310894813E-2</v>
+        <f t="shared" ref="D197:D260" si="12">(C197)/($C$2+C197)</f>
+        <v>0.16987292154734118</v>
       </c>
       <c r="E197">
-        <f>$D$1*C197/($C$2+C197)/($C$2+C197)</f>
-        <v>1.696950114699812E-5</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.5356654604674782E-3</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="11"/>
+        <v>9.0400838843494539E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="2">
         <v>139</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:C209" si="3">C$4*EXP(C$3*((1/($B198+273.15))-1/(298.15)))</f>
-        <v>116.66422186296204</v>
+        <f t="shared" ref="C198:C209" si="13">C$4*EXP(C$3*((1/($B198+273.15))-1/(273.15+100)))</f>
+        <v>200.39244408707103</v>
       </c>
       <c r="D198">
-        <f>(C198)/($C$2+C198)</f>
-        <v>2.4220958009366762E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.16693910818430266</v>
       </c>
       <c r="E198">
-        <f>$D$1*C198/($C$2+C198)/($C$2+C198)</f>
-        <v>1.6594297993227307E-5</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E198:E209" si="14">$D$1*$D$1*C198/($C$2+C198)/($C$2+C198)</f>
+        <v>1.5144771171145331E-3</v>
+      </c>
+      <c r="F198">
+        <f t="shared" ref="F198:F209" si="15">$D$1*$D$1/($C$2+C198)</f>
+        <v>9.0720331118729434E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="2">
         <v>140</v>
       </c>
       <c r="C199">
-        <f t="shared" si="3"/>
-        <v>113.96633760194311</v>
+        <f t="shared" si="13"/>
+        <v>196.25790212476659</v>
       </c>
       <c r="D199">
-        <f>(C199)/($C$2+C199)</f>
-        <v>2.3674103558172146E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.16405985847715421</v>
       </c>
       <c r="E199">
-        <f>$D$1*C199/($C$2+C199)/($C$2+C199)</f>
-        <v>1.6228726223475315E-5</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1.4935005701052163E-3</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="15"/>
+        <v>9.1033881411837891E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="2">
         <v>141</v>
       </c>
       <c r="C200">
-        <f t="shared" si="3"/>
-        <v>111.34342212453764</v>
+        <f t="shared" si="13"/>
+        <v>192.22801725552171</v>
       </c>
       <c r="D200">
-        <f>(C200)/($C$2+C200)</f>
-        <v>2.3141857139636873E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.16123427270064133</v>
       </c>
       <c r="E200">
-        <f>$D$1*C200/($C$2+C200)/($C$2+C200)</f>
-        <v>1.5872516646728972E-5</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1.4727394460598948E-3</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="15"/>
+        <v>9.1341587702900139E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="2">
         <v>142</v>
       </c>
       <c r="C201">
-        <f t="shared" si="3"/>
-        <v>108.79307528655077</v>
+        <f t="shared" si="13"/>
+        <v>188.29970033923306</v>
       </c>
       <c r="D201">
-        <f>(C201)/($C$2+C201)</f>
-        <v>2.2623779726697414E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.15846145571313169</v>
       </c>
       <c r="E201">
-        <f>$D$1*C201/($C$2+C201)/($C$2+C201)</f>
-        <v>1.5525407712340097E-5</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1.4521969939261707E-3</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="15"/>
+        <v>9.1643547472839947E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="2">
         <v>143</v>
       </c>
       <c r="C202">
-        <f t="shared" si="3"/>
-        <v>106.31298329177068</v>
+        <f t="shared" si="13"/>
+        <v>184.46996554908978</v>
       </c>
       <c r="D202">
-        <f>(C202)/($C$2+C202)</f>
-        <v>2.2119446582306954E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.15574051762770891</v>
       </c>
       <c r="E202">
-        <f>$D$1*C202/($C$2+C202)/($C$2+C202)</f>
-        <v>1.5187145318118741E-5</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1.4318761017967404E-3</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="15"/>
+        <v>9.1939857630342504E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="2">
         <v>144</v>
       </c>
       <c r="C203">
-        <f t="shared" si="3"/>
-        <v>103.9009152598923</v>
+        <f t="shared" si="13"/>
+        <v>180.73592653057898</v>
       </c>
       <c r="D203">
-        <f>(C203)/($C$2+C203)</f>
-        <v>2.1628446775378847E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.15307057443542454</v>
       </c>
       <c r="E203">
-        <f>$D$1*C203/($C$2+C203)/($C$2+C203)</f>
-        <v>1.4857482620431785E-5</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1.4117793133472526E-3</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="15"/>
+        <v>9.2230614443982242E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="2">
         <v>145</v>
       </c>
       <c r="C204">
-        <f t="shared" si="3"/>
-        <v>101.55471994329447</v>
+        <f t="shared" si="13"/>
+        <v>177.09479271706857</v>
       </c>
       <c r="D204">
-        <f>(C204)/($C$2+C204)</f>
-        <v>2.1150382712808863E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.15045074858268939</v>
       </c>
       <c r="E204">
-        <f>$D$1*C204/($C$2+C204)/($C$2+C204)</f>
-        <v>1.4536179846575511E-5</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1.3919088438778795E-3</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="15"/>
+        <v>9.251591347934511E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="2">
         <v>146</v>
       </c>
       <c r="C205">
-        <f t="shared" si="3"/>
-        <v>99.272322585692621</v>
+        <f t="shared" si="13"/>
+        <v>173.54386579504316</v>
       </c>
       <c r="D205">
-        <f>(C205)/($C$2+C205)</f>
-        <v>2.0684869687121216E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.14788016950476074</v>
       </c>
       <c r="E205">
-        <f>$D$1*C205/($C$2+C205)/($C$2+C205)</f>
-        <v>1.4223004109657126E-5</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1.3722665959451231E-3</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="15"/>
+        <v>9.2795849540931556E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="2">
         <v>147</v>
       </c>
       <c r="C206">
-        <f t="shared" si="3"/>
-        <v>97.051721916041913</v>
+        <f t="shared" si="13"/>
+        <v>170.08053631239756</v>
       </c>
       <c r="D206">
-        <f>(C206)/($C$2+C206)</f>
-        <v>2.0231535439287997E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.14535797411725176</v>
       </c>
       <c r="E206">
-        <f>$D$1*C206/($C$2+C206)/($C$2+C206)</f>
-        <v>1.3917729226188837E-5</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1.3528541745730256E-3</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="15"/>
+        <v>9.307051661863127E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="2">
         <v>148</v>
       </c>
       <c r="C207">
-        <f t="shared" si="3"/>
-        <v>94.89098727139293</v>
+        <f t="shared" si="13"/>
+        <v>166.70228042350112</v>
       </c>
       <c r="D207">
-        <f>(C207)/($C$2+C207)</f>
-        <v>1.9790019736276032E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.14288330726754891</v>
       </c>
       <c r="E207">
-        <f>$D$1*C207/($C$2+C207)/($C$2+C207)</f>
-        <v>1.3620135536569286E-5</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1.3336729020352949E-3</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="15"/>
+        <v>9.3340007838563915E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="2">
         <v>149</v>
       </c>
       <c r="C208">
-        <f t="shared" si="3"/>
-        <v>92.788255842721853</v>
+        <f t="shared" si="13"/>
+        <v>163.40665676505006</v>
       </c>
       <c r="D208">
-        <f>(C208)/($C$2+C208)</f>
-        <v>1.9359973962882027E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.14045532214798909</v>
       </c>
       <c r="E208">
-        <f>$D$1*C208/($C$2+C208)/($C$2+C208)</f>
-        <v>1.3330009728601538E-5</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>1.314723832202118E-3</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="15"/>
+        <v>9.3604415418083991E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="2">
         <v>150</v>
       </c>
       <c r="C209">
-        <f t="shared" si="3"/>
-        <v>90.741730038051458</v>
+        <f t="shared" si="13"/>
+        <v>160.1913034570016</v>
       </c>
       <c r="D209">
-        <f>(C209)/($C$2+C209)</f>
-        <v>1.8941060727423253E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.13807318067260321</v>
       </c>
       <c r="E209">
-        <f>$D$1*C209/($C$2+C209)/($C$2+C209)</f>
-        <v>1.3047144664172969E-5</v>
+        <f t="shared" si="14"/>
+        <v>1.2960077644474217E-3</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="15"/>
+        <v>9.3863830624753494E-3</v>
       </c>
     </row>
   </sheetData>
